--- a/Template.xlsx
+++ b/Template.xlsx
@@ -21,6 +21,9 @@
     <t>Week number</t>
   </si>
   <si>
+    <t>Week</t>
+  </si>
+  <si>
     <t>Entry date</t>
   </si>
   <si>
@@ -30,10 +33,22 @@
     <t>iOS Active (new), unassigned</t>
   </si>
   <si>
+    <t>Oldest update case, assigned (days)</t>
+  </si>
+  <si>
+    <t>GOAL: oldest updated case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achieved? </t>
+  </si>
+  <si>
     <t>iOS, Oldest case date</t>
   </si>
   <si>
     <t>WSA, Active (new), unassigned</t>
+  </si>
+  <si>
+    <t>Active (new), assigned (count)</t>
   </si>
   <si>
     <t>WSA, Oldest case date</t>
@@ -42,10 +57,16 @@
     <t>VR, Active (new), unassigned</t>
   </si>
   <si>
+    <t>GOAL: Active (new), assigned</t>
+  </si>
+  <si>
     <t>VR, Oldest case date</t>
   </si>
   <si>
     <t>LNX, Active (new), unassigned</t>
+  </si>
+  <si>
+    <t>Active(), assigned, last update(days)</t>
   </si>
   <si>
     <t>LNX, oldest case date</t>
@@ -54,13 +75,16 @@
     <t>Oldest update case</t>
   </si>
   <si>
+    <t>GOAL: Active(), assigned, last update</t>
+  </si>
+  <si>
     <t>Weeks to oldest case</t>
   </si>
   <si>
-    <t>All filters combined, unassaigned + assigned</t>
+    <t>Active(new), unassigned (days)</t>
   </si>
   <si>
-    <t>Week</t>
+    <t>All filters combined, unassaigned + assigned</t>
   </si>
   <si>
     <t>iOS, unassigned</t>
@@ -76,30 +100,6 @@
   </si>
   <si>
     <t>TARGET</t>
-  </si>
-  <si>
-    <t>Oldest update case, assigned (days)</t>
-  </si>
-  <si>
-    <t>GOAL: oldest updated case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achieved? </t>
-  </si>
-  <si>
-    <t>Active (new), assigned (count)</t>
-  </si>
-  <si>
-    <t>GOAL: Active (new), assigned</t>
-  </si>
-  <si>
-    <t>Active(), assigned, last update(days)</t>
-  </si>
-  <si>
-    <t>GOAL: Active(), assigned, last update</t>
-  </si>
-  <si>
-    <t>Active(new), unassigned (days)</t>
   </si>
   <si>
     <t>GOAL: Active(new), unassigned</t>
@@ -253,10 +253,19 @@
     <t>Isometric z-Sort does not work</t>
   </si>
   <si>
+    <t>Goal 4 Target Date</t>
+  </si>
+  <si>
     <t>Multithread performance on iOS</t>
   </si>
   <si>
+    <t>Goal 3 Target Date</t>
+  </si>
+  <si>
     <t>The effect of PostProcessing V2 is abnormal when the scene is built as assetbundles</t>
+  </si>
+  <si>
+    <t>Goal 1 Target Date</t>
   </si>
   <si>
     <t>GPU Lightmapper Preview Crash</t>
@@ -269,15 +278,6 @@
   </si>
   <si>
     <t>Unity Crashing</t>
-  </si>
-  <si>
-    <t>Goal 4 Target Date</t>
-  </si>
-  <si>
-    <t>Goal 3 Target Date</t>
-  </si>
-  <si>
-    <t>Goal 1 Target Date</t>
   </si>
 </sst>
 </file>
@@ -305,11 +305,11 @@
     <font>
       <b/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="12.0"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
@@ -329,6 +329,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
@@ -337,6 +343,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE06666"/>
         <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -353,26 +365,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -461,17 +461,17 @@
       </right>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
     </border>
     <border>
       <top style="thin">
@@ -489,117 +489,124 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="10" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="9" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="10" fontId="2" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="3" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -608,26 +615,29 @@
     <xf borderId="4" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -636,134 +646,124 @@
     <xf borderId="4" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="12" fontId="2" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="12" fontId="3" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="9" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="12" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="12" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,11 +916,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="872026341"/>
-        <c:axId val="608404913"/>
+        <c:axId val="951711066"/>
+        <c:axId val="116413751"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="872026341"/>
+        <c:axId val="951711066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,10 +939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608404913"/>
+        <c:crossAx val="116413751"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608404913"/>
+        <c:axId val="116413751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -995,7 +995,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="872026341"/>
+        <c:crossAx val="951711066"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1140,11 +1140,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1675130655"/>
-        <c:axId val="1767298094"/>
+        <c:axId val="1905506600"/>
+        <c:axId val="409213636"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1675130655"/>
+        <c:axId val="1905506600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,10 +1163,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1767298094"/>
+        <c:crossAx val="409213636"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1767298094"/>
+        <c:axId val="409213636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1219,7 +1219,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675130655"/>
+        <c:crossAx val="1905506600"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1363,11 +1363,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1780429774"/>
-        <c:axId val="1752192657"/>
+        <c:axId val="1569868391"/>
+        <c:axId val="1815398867"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1780429774"/>
+        <c:axId val="1569868391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,10 +1386,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1752192657"/>
+        <c:crossAx val="1815398867"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1752192657"/>
+        <c:axId val="1815398867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1442,7 +1442,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1780429774"/>
+        <c:crossAx val="1569868391"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1581,11 +1581,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="364206612"/>
-        <c:axId val="1414627409"/>
+        <c:axId val="759105994"/>
+        <c:axId val="1517407493"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="364206612"/>
+        <c:axId val="759105994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,10 +1604,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1414627409"/>
+        <c:crossAx val="1517407493"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1414627409"/>
+        <c:axId val="1517407493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1660,7 +1660,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364206612"/>
+        <c:crossAx val="759105994"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1799,11 +1799,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="119622374"/>
-        <c:axId val="1905867956"/>
+        <c:axId val="1822832102"/>
+        <c:axId val="135139972"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119622374"/>
+        <c:axId val="1822832102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,10 +1822,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905867956"/>
+        <c:crossAx val="135139972"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1905867956"/>
+        <c:axId val="135139972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1878,7 +1878,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119622374"/>
+        <c:crossAx val="1822832102"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2017,11 +2017,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1187332097"/>
-        <c:axId val="991274923"/>
+        <c:axId val="1237113336"/>
+        <c:axId val="400335054"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1187332097"/>
+        <c:axId val="1237113336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,10 +2040,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991274923"/>
+        <c:crossAx val="400335054"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="991274923"/>
+        <c:axId val="400335054"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2096,7 +2096,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187332097"/>
+        <c:crossAx val="1237113336"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2296,6 +2296,7 @@
     <col customWidth="1" min="5" max="5" width="26.43"/>
     <col customWidth="1" min="6" max="6" width="6.71"/>
     <col customWidth="1" min="7" max="7" width="5.86"/>
+    <col customWidth="1" min="9" max="9" width="17.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="153.0" customHeight="1"/>
@@ -2344,25 +2345,25 @@
       <c r="B7" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="98">
         <v>43409.0</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="99">
         <v>172.0</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="44">
         <v>0.0</v>
       </c>
     </row>
@@ -2373,28 +2374,28 @@
       <c r="B8" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="102">
         <v>43402.0</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="44" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="99">
         <v>16.0</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="44" t="s">
         <v>73</v>
       </c>
       <c r="J8" s="99">
         <v>0.0</v>
       </c>
-      <c r="K8" s="43"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="103">
@@ -2403,25 +2404,25 @@
       <c r="B9" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="44" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="98">
         <v>43402.0</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="44" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="99">
         <v>15.0</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="44">
         <v>1.0</v>
       </c>
     </row>
@@ -2432,25 +2433,25 @@
       <c r="B10" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="102">
         <v>43402.0</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="44" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="99">
         <v>22.0</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="44">
         <v>3.0</v>
       </c>
     </row>
@@ -2461,14 +2462,21 @@
       <c r="B11" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="102">
         <v>43403.0</v>
+      </c>
+      <c r="I11" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="105">
+        <f>'Goals Data'!P4</f>
+        <v>43403</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2476,16 +2484,23 @@
         <v>1096407.0</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="102">
         <v>43404.0</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="106">
+        <f>'Goals Data'!P3</f>
+        <v>43424</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2493,29 +2508,36 @@
         <v>1096477.0</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="102">
         <v>43404.0</v>
       </c>
+      <c r="I13" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="106">
+        <f>'Goals Data'!P2</f>
+        <v>43244</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="43">
+      <c r="A14" s="44">
         <v>1096607.0</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="43" t="s">
+      <c r="B14" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="102">
@@ -2523,16 +2545,16 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="43">
+      <c r="A15" s="44">
         <v>1096722.0</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="102">
@@ -2540,16 +2562,16 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="43">
+      <c r="A16" s="44">
         <v>1096825.0</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="102">
@@ -2557,49 +2579,25 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="43">
+      <c r="A17" s="44">
         <v>1096853.0</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="107">
         <v>43405.0</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="106">
-        <f>'Goals Data'!P4</f>
-        <v>43402</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="105" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="107">
-        <f>'Goals Data'!P3</f>
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="D20" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="107">
-        <f>'Goals Data'!P2</f>
-        <v>43243</v>
-      </c>
-    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1">
       <c r="E21" s="93"/>
     </row>
@@ -3652,1310 +3650,1310 @@
   </cols>
   <sheetData>
     <row r="1" ht="90.0" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="24" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="27">
+      <c r="A2" s="31">
         <v>1.0</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="32">
         <v>175.0</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="32">
         <v>180.0</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="34">
         <v>1.0</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="35">
         <v>38.0</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="35">
         <v>24.0</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="36">
         <v>0.0</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="37">
         <v>168.0</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="37">
         <v>14.0</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="38">
         <v>0.0</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="39">
         <v>38.0</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="39">
         <v>21.0</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="40">
         <v>0.0</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="42">
+      <c r="P2" s="43">
         <f>TODAY()-C2</f>
-        <v>43243</v>
-      </c>
-      <c r="Q2" s="43" t="s">
+        <v>43244</v>
+      </c>
+      <c r="Q2" s="44" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="46">
         <v>0.0</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="46">
         <v>0.0</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="47">
         <v>0.0</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="48">
         <v>0.0</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="48">
         <v>0.0</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="49">
         <v>0.0</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="50">
         <v>0.0</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="50">
         <v>0.0</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="51">
         <v>0.0</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="52">
         <v>0.0</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="52">
         <v>0.0</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="53">
         <v>0.0</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="41">
         <v>0.0</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="43">
         <f>TODAY()-I4</f>
-        <v>43423</v>
-      </c>
-      <c r="Q3" s="43" t="s">
+        <v>43424</v>
+      </c>
+      <c r="Q3" s="44" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="43">
         <f>today()-L2</f>
-        <v>43402</v>
+        <v>43403</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="74"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="74"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="78"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="78"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="78"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="78"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="78"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="78"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="78"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="78"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="78"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="78"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="78"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="78"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="78"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="78"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="78"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="78"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="78"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="78"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="74"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="78"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="74"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="78"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="74"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="78"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="78"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="74"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="78"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="74"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="78"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="74"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="78"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="74"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="78"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="74"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="78"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="74"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="78"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="74"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="78"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="74"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="78"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="74"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="78"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="74"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="78"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="74"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="78"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="74"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="78"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="74"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="78"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="74"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="78"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="74"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="78"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="74"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="78"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="74"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="78"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="74"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="78"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="74"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="78"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="74"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="75"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="78"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="63"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="77"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="74"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="78"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="63"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="73"/>
-      <c r="P61" s="74"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="78"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="63"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="77"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="74"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="78"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="77"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="74"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="78"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="77"/>
-      <c r="O64" s="73"/>
-      <c r="P64" s="74"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="78"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="74"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="78"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="63"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="73"/>
-      <c r="P66" s="74"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="77"/>
+      <c r="P66" s="78"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="82"/>
@@ -4971,9 +4969,9 @@
       <c r="K67" s="89"/>
       <c r="L67" s="89"/>
       <c r="M67" s="90"/>
-      <c r="N67" s="77"/>
-      <c r="O67" s="73"/>
-      <c r="P67" s="74"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="78"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="82"/>
@@ -4989,9 +4987,9 @@
       <c r="K68" s="89"/>
       <c r="L68" s="89"/>
       <c r="M68" s="90"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="73"/>
-      <c r="P68" s="74"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="78"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="82"/>
@@ -5007,9 +5005,9 @@
       <c r="K69" s="89"/>
       <c r="L69" s="89"/>
       <c r="M69" s="90"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="74"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="78"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="82"/>
@@ -5025,9 +5023,9 @@
       <c r="K70" s="89"/>
       <c r="L70" s="89"/>
       <c r="M70" s="90"/>
-      <c r="N70" s="77"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="74"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="77"/>
+      <c r="P70" s="78"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="82"/>
@@ -5043,9 +5041,9 @@
       <c r="K71" s="89"/>
       <c r="L71" s="89"/>
       <c r="M71" s="90"/>
-      <c r="N71" s="77"/>
-      <c r="O71" s="73"/>
-      <c r="P71" s="74"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="78"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="82"/>
@@ -5061,9 +5059,9 @@
       <c r="K72" s="89"/>
       <c r="L72" s="89"/>
       <c r="M72" s="90"/>
-      <c r="N72" s="77"/>
-      <c r="O72" s="73"/>
-      <c r="P72" s="74"/>
+      <c r="N72" s="81"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="78"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="82"/>
@@ -5079,9 +5077,9 @@
       <c r="K73" s="89"/>
       <c r="L73" s="89"/>
       <c r="M73" s="90"/>
-      <c r="N73" s="77"/>
-      <c r="O73" s="73"/>
-      <c r="P73" s="74"/>
+      <c r="N73" s="81"/>
+      <c r="O73" s="77"/>
+      <c r="P73" s="78"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="82"/>
@@ -5097,9 +5095,9 @@
       <c r="K74" s="89"/>
       <c r="L74" s="89"/>
       <c r="M74" s="90"/>
-      <c r="N74" s="77"/>
-      <c r="O74" s="73"/>
-      <c r="P74" s="74"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="77"/>
+      <c r="P74" s="78"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="82"/>
@@ -5115,9 +5113,9 @@
       <c r="K75" s="89"/>
       <c r="L75" s="89"/>
       <c r="M75" s="90"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="73"/>
-      <c r="P75" s="74"/>
+      <c r="N75" s="81"/>
+      <c r="O75" s="77"/>
+      <c r="P75" s="78"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="82"/>
@@ -5133,9 +5131,9 @@
       <c r="K76" s="89"/>
       <c r="L76" s="89"/>
       <c r="M76" s="90"/>
-      <c r="N76" s="77"/>
-      <c r="O76" s="73"/>
-      <c r="P76" s="74"/>
+      <c r="N76" s="81"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="78"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="82"/>
@@ -5151,9 +5149,9 @@
       <c r="K77" s="89"/>
       <c r="L77" s="89"/>
       <c r="M77" s="90"/>
-      <c r="N77" s="77"/>
-      <c r="O77" s="73"/>
-      <c r="P77" s="74"/>
+      <c r="N77" s="81"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="78"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="82"/>
@@ -5169,9 +5167,9 @@
       <c r="K78" s="89"/>
       <c r="L78" s="89"/>
       <c r="M78" s="90"/>
-      <c r="N78" s="77"/>
-      <c r="O78" s="73"/>
-      <c r="P78" s="74"/>
+      <c r="N78" s="81"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="78"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="82"/>
@@ -5187,9 +5185,9 @@
       <c r="K79" s="89"/>
       <c r="L79" s="89"/>
       <c r="M79" s="90"/>
-      <c r="N79" s="77"/>
-      <c r="O79" s="73"/>
-      <c r="P79" s="74"/>
+      <c r="N79" s="81"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="78"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="82"/>
@@ -5205,9 +5203,9 @@
       <c r="K80" s="89"/>
       <c r="L80" s="89"/>
       <c r="M80" s="90"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="74"/>
+      <c r="N80" s="81"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="78"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="82"/>
@@ -5223,9 +5221,9 @@
       <c r="K81" s="89"/>
       <c r="L81" s="89"/>
       <c r="M81" s="90"/>
-      <c r="N81" s="77"/>
-      <c r="O81" s="73"/>
-      <c r="P81" s="74"/>
+      <c r="N81" s="81"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="78"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="82"/>
@@ -5241,9 +5239,9 @@
       <c r="K82" s="89"/>
       <c r="L82" s="89"/>
       <c r="M82" s="90"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="73"/>
-      <c r="P82" s="74"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="78"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="82"/>
@@ -5259,9 +5257,9 @@
       <c r="K83" s="89"/>
       <c r="L83" s="89"/>
       <c r="M83" s="90"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="73"/>
-      <c r="P83" s="74"/>
+      <c r="N83" s="81"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="78"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="82"/>
@@ -5277,9 +5275,9 @@
       <c r="K84" s="89"/>
       <c r="L84" s="89"/>
       <c r="M84" s="90"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="74"/>
+      <c r="N84" s="81"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="78"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="82"/>
@@ -5295,9 +5293,9 @@
       <c r="K85" s="89"/>
       <c r="L85" s="89"/>
       <c r="M85" s="90"/>
-      <c r="N85" s="77"/>
-      <c r="O85" s="73"/>
-      <c r="P85" s="74"/>
+      <c r="N85" s="81"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="78"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="82"/>
@@ -5313,9 +5311,9 @@
       <c r="K86" s="89"/>
       <c r="L86" s="89"/>
       <c r="M86" s="90"/>
-      <c r="N86" s="77"/>
-      <c r="O86" s="73"/>
-      <c r="P86" s="74"/>
+      <c r="N86" s="81"/>
+      <c r="O86" s="77"/>
+      <c r="P86" s="78"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="82"/>
@@ -5331,9 +5329,9 @@
       <c r="K87" s="89"/>
       <c r="L87" s="89"/>
       <c r="M87" s="90"/>
-      <c r="N87" s="77"/>
-      <c r="O87" s="73"/>
-      <c r="P87" s="74"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="78"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="82"/>
@@ -5349,9 +5347,9 @@
       <c r="K88" s="89"/>
       <c r="L88" s="89"/>
       <c r="M88" s="90"/>
-      <c r="N88" s="77"/>
-      <c r="O88" s="73"/>
-      <c r="P88" s="74"/>
+      <c r="N88" s="81"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="78"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="82"/>
@@ -5367,9 +5365,9 @@
       <c r="K89" s="89"/>
       <c r="L89" s="89"/>
       <c r="M89" s="90"/>
-      <c r="N89" s="77"/>
-      <c r="O89" s="73"/>
-      <c r="P89" s="74"/>
+      <c r="N89" s="81"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="78"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="82"/>
@@ -5385,9 +5383,9 @@
       <c r="K90" s="89"/>
       <c r="L90" s="89"/>
       <c r="M90" s="90"/>
-      <c r="N90" s="77"/>
-      <c r="O90" s="73"/>
-      <c r="P90" s="74"/>
+      <c r="N90" s="81"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="78"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="82"/>
@@ -5403,9 +5401,9 @@
       <c r="K91" s="89"/>
       <c r="L91" s="89"/>
       <c r="M91" s="90"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="73"/>
-      <c r="P91" s="74"/>
+      <c r="N91" s="81"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="78"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="82"/>
@@ -5421,9 +5419,9 @@
       <c r="K92" s="89"/>
       <c r="L92" s="89"/>
       <c r="M92" s="90"/>
-      <c r="N92" s="77"/>
-      <c r="O92" s="73"/>
-      <c r="P92" s="74"/>
+      <c r="N92" s="81"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="78"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="82"/>
@@ -5439,9 +5437,9 @@
       <c r="K93" s="89"/>
       <c r="L93" s="89"/>
       <c r="M93" s="90"/>
-      <c r="N93" s="77"/>
-      <c r="O93" s="73"/>
-      <c r="P93" s="74"/>
+      <c r="N93" s="81"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="78"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="82"/>
@@ -5457,9 +5455,9 @@
       <c r="K94" s="89"/>
       <c r="L94" s="89"/>
       <c r="M94" s="90"/>
-      <c r="N94" s="77"/>
-      <c r="O94" s="73"/>
-      <c r="P94" s="74"/>
+      <c r="N94" s="81"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="78"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="82"/>
@@ -5475,9 +5473,9 @@
       <c r="K95" s="89"/>
       <c r="L95" s="89"/>
       <c r="M95" s="90"/>
-      <c r="N95" s="77"/>
-      <c r="O95" s="73"/>
-      <c r="P95" s="74"/>
+      <c r="N95" s="81"/>
+      <c r="O95" s="77"/>
+      <c r="P95" s="78"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="82"/>
@@ -5493,9 +5491,9 @@
       <c r="K96" s="89"/>
       <c r="L96" s="89"/>
       <c r="M96" s="90"/>
-      <c r="N96" s="77"/>
-      <c r="O96" s="73"/>
-      <c r="P96" s="74"/>
+      <c r="N96" s="81"/>
+      <c r="O96" s="77"/>
+      <c r="P96" s="78"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="82"/>
@@ -5511,9 +5509,9 @@
       <c r="K97" s="89"/>
       <c r="L97" s="89"/>
       <c r="M97" s="90"/>
-      <c r="N97" s="77"/>
-      <c r="O97" s="73"/>
-      <c r="P97" s="74"/>
+      <c r="N97" s="81"/>
+      <c r="O97" s="77"/>
+      <c r="P97" s="78"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="82"/>
@@ -5529,9 +5527,9 @@
       <c r="K98" s="89"/>
       <c r="L98" s="89"/>
       <c r="M98" s="90"/>
-      <c r="N98" s="77"/>
-      <c r="O98" s="73"/>
-      <c r="P98" s="74"/>
+      <c r="N98" s="81"/>
+      <c r="O98" s="77"/>
+      <c r="P98" s="78"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="82"/>
@@ -5547,9 +5545,9 @@
       <c r="K99" s="89"/>
       <c r="L99" s="89"/>
       <c r="M99" s="90"/>
-      <c r="N99" s="77"/>
-      <c r="O99" s="73"/>
-      <c r="P99" s="74"/>
+      <c r="N99" s="81"/>
+      <c r="O99" s="77"/>
+      <c r="P99" s="78"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="82"/>
@@ -5565,9 +5563,9 @@
       <c r="K100" s="89"/>
       <c r="L100" s="89"/>
       <c r="M100" s="90"/>
-      <c r="N100" s="77"/>
-      <c r="O100" s="73"/>
-      <c r="P100" s="74"/>
+      <c r="N100" s="81"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="78"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="82"/>
@@ -5583,9 +5581,9 @@
       <c r="K101" s="89"/>
       <c r="L101" s="89"/>
       <c r="M101" s="90"/>
-      <c r="N101" s="77"/>
-      <c r="O101" s="73"/>
-      <c r="P101" s="74"/>
+      <c r="N101" s="81"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="78"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="82"/>
@@ -5601,9 +5599,9 @@
       <c r="K102" s="89"/>
       <c r="L102" s="89"/>
       <c r="M102" s="90"/>
-      <c r="N102" s="77"/>
-      <c r="O102" s="73"/>
-      <c r="P102" s="74"/>
+      <c r="N102" s="81"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="78"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="82"/>
@@ -5619,9 +5617,9 @@
       <c r="K103" s="89"/>
       <c r="L103" s="89"/>
       <c r="M103" s="90"/>
-      <c r="N103" s="77"/>
-      <c r="O103" s="73"/>
-      <c r="P103" s="74"/>
+      <c r="N103" s="81"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="78"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="82"/>
@@ -5637,9 +5635,9 @@
       <c r="K104" s="89"/>
       <c r="L104" s="89"/>
       <c r="M104" s="90"/>
-      <c r="N104" s="77"/>
-      <c r="O104" s="73"/>
-      <c r="P104" s="74"/>
+      <c r="N104" s="81"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="78"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="82"/>
@@ -5655,9 +5653,9 @@
       <c r="K105" s="89"/>
       <c r="L105" s="89"/>
       <c r="M105" s="90"/>
-      <c r="N105" s="77"/>
-      <c r="O105" s="73"/>
-      <c r="P105" s="74"/>
+      <c r="N105" s="81"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="78"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="82"/>
@@ -5673,9 +5671,9 @@
       <c r="K106" s="89"/>
       <c r="L106" s="89"/>
       <c r="M106" s="90"/>
-      <c r="N106" s="77"/>
-      <c r="O106" s="73"/>
-      <c r="P106" s="74"/>
+      <c r="N106" s="81"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="78"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="82"/>
@@ -5691,9 +5689,9 @@
       <c r="K107" s="89"/>
       <c r="L107" s="89"/>
       <c r="M107" s="90"/>
-      <c r="N107" s="77"/>
-      <c r="O107" s="73"/>
-      <c r="P107" s="74"/>
+      <c r="N107" s="81"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="78"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="82"/>
@@ -5709,9 +5707,9 @@
       <c r="K108" s="89"/>
       <c r="L108" s="89"/>
       <c r="M108" s="90"/>
-      <c r="N108" s="77"/>
-      <c r="O108" s="73"/>
-      <c r="P108" s="74"/>
+      <c r="N108" s="81"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="78"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="82"/>
@@ -5727,9 +5725,9 @@
       <c r="K109" s="89"/>
       <c r="L109" s="89"/>
       <c r="M109" s="90"/>
-      <c r="N109" s="77"/>
-      <c r="O109" s="73"/>
-      <c r="P109" s="74"/>
+      <c r="N109" s="81"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="78"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="82"/>
@@ -5745,9 +5743,9 @@
       <c r="K110" s="89"/>
       <c r="L110" s="89"/>
       <c r="M110" s="90"/>
-      <c r="N110" s="77"/>
-      <c r="O110" s="73"/>
-      <c r="P110" s="74"/>
+      <c r="N110" s="81"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="78"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="82"/>
@@ -5763,9 +5761,9 @@
       <c r="K111" s="89"/>
       <c r="L111" s="89"/>
       <c r="M111" s="90"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="73"/>
-      <c r="P111" s="74"/>
+      <c r="N111" s="81"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="78"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="82"/>
@@ -5781,9 +5779,9 @@
       <c r="K112" s="89"/>
       <c r="L112" s="89"/>
       <c r="M112" s="90"/>
-      <c r="N112" s="77"/>
-      <c r="O112" s="73"/>
-      <c r="P112" s="74"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="78"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="82"/>
@@ -5799,9 +5797,9 @@
       <c r="K113" s="89"/>
       <c r="L113" s="89"/>
       <c r="M113" s="90"/>
-      <c r="N113" s="77"/>
-      <c r="O113" s="73"/>
-      <c r="P113" s="74"/>
+      <c r="N113" s="81"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="78"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="82"/>
@@ -5817,9 +5815,9 @@
       <c r="K114" s="89"/>
       <c r="L114" s="89"/>
       <c r="M114" s="90"/>
-      <c r="N114" s="77"/>
-      <c r="O114" s="73"/>
-      <c r="P114" s="74"/>
+      <c r="N114" s="81"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="78"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="82"/>
@@ -5835,9 +5833,9 @@
       <c r="K115" s="89"/>
       <c r="L115" s="89"/>
       <c r="M115" s="90"/>
-      <c r="N115" s="77"/>
-      <c r="O115" s="73"/>
-      <c r="P115" s="74"/>
+      <c r="N115" s="81"/>
+      <c r="O115" s="77"/>
+      <c r="P115" s="78"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="82"/>
@@ -5853,9 +5851,9 @@
       <c r="K116" s="89"/>
       <c r="L116" s="89"/>
       <c r="M116" s="90"/>
-      <c r="N116" s="77"/>
-      <c r="O116" s="73"/>
-      <c r="P116" s="74"/>
+      <c r="N116" s="81"/>
+      <c r="O116" s="77"/>
+      <c r="P116" s="78"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="82"/>
@@ -5871,9 +5869,9 @@
       <c r="K117" s="89"/>
       <c r="L117" s="89"/>
       <c r="M117" s="90"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="73"/>
-      <c r="P117" s="74"/>
+      <c r="N117" s="81"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="78"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="82"/>
@@ -5889,9 +5887,9 @@
       <c r="K118" s="89"/>
       <c r="L118" s="89"/>
       <c r="M118" s="90"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="73"/>
-      <c r="P118" s="74"/>
+      <c r="N118" s="81"/>
+      <c r="O118" s="77"/>
+      <c r="P118" s="78"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="82"/>
@@ -5907,9 +5905,9 @@
       <c r="K119" s="89"/>
       <c r="L119" s="89"/>
       <c r="M119" s="90"/>
-      <c r="N119" s="77"/>
-      <c r="O119" s="73"/>
-      <c r="P119" s="74"/>
+      <c r="N119" s="81"/>
+      <c r="O119" s="77"/>
+      <c r="P119" s="78"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="82"/>
@@ -5925,9 +5923,9 @@
       <c r="K120" s="89"/>
       <c r="L120" s="89"/>
       <c r="M120" s="90"/>
-      <c r="N120" s="77"/>
-      <c r="O120" s="73"/>
-      <c r="P120" s="74"/>
+      <c r="N120" s="81"/>
+      <c r="O120" s="77"/>
+      <c r="P120" s="78"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="82"/>
@@ -5943,9 +5941,9 @@
       <c r="K121" s="89"/>
       <c r="L121" s="89"/>
       <c r="M121" s="90"/>
-      <c r="N121" s="77"/>
-      <c r="O121" s="73"/>
-      <c r="P121" s="74"/>
+      <c r="N121" s="81"/>
+      <c r="O121" s="77"/>
+      <c r="P121" s="78"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="82"/>
@@ -5961,9 +5959,9 @@
       <c r="K122" s="89"/>
       <c r="L122" s="89"/>
       <c r="M122" s="90"/>
-      <c r="N122" s="77"/>
-      <c r="O122" s="73"/>
-      <c r="P122" s="74"/>
+      <c r="N122" s="81"/>
+      <c r="O122" s="77"/>
+      <c r="P122" s="78"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="82"/>
@@ -5979,9 +5977,9 @@
       <c r="K123" s="89"/>
       <c r="L123" s="89"/>
       <c r="M123" s="90"/>
-      <c r="N123" s="77"/>
-      <c r="O123" s="73"/>
-      <c r="P123" s="74"/>
+      <c r="N123" s="81"/>
+      <c r="O123" s="77"/>
+      <c r="P123" s="78"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="82"/>
@@ -5997,9 +5995,9 @@
       <c r="K124" s="89"/>
       <c r="L124" s="89"/>
       <c r="M124" s="90"/>
-      <c r="N124" s="77"/>
-      <c r="O124" s="73"/>
-      <c r="P124" s="74"/>
+      <c r="N124" s="81"/>
+      <c r="O124" s="77"/>
+      <c r="P124" s="78"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="82"/>
@@ -6015,9 +6013,9 @@
       <c r="K125" s="89"/>
       <c r="L125" s="89"/>
       <c r="M125" s="90"/>
-      <c r="N125" s="77"/>
-      <c r="O125" s="73"/>
-      <c r="P125" s="74"/>
+      <c r="N125" s="81"/>
+      <c r="O125" s="77"/>
+      <c r="P125" s="78"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="82"/>
@@ -6033,9 +6031,9 @@
       <c r="K126" s="89"/>
       <c r="L126" s="89"/>
       <c r="M126" s="90"/>
-      <c r="N126" s="77"/>
-      <c r="O126" s="73"/>
-      <c r="P126" s="74"/>
+      <c r="N126" s="81"/>
+      <c r="O126" s="77"/>
+      <c r="P126" s="78"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="82"/>
@@ -6051,9 +6049,9 @@
       <c r="K127" s="89"/>
       <c r="L127" s="89"/>
       <c r="M127" s="90"/>
-      <c r="N127" s="77"/>
-      <c r="O127" s="73"/>
-      <c r="P127" s="74"/>
+      <c r="N127" s="81"/>
+      <c r="O127" s="77"/>
+      <c r="P127" s="78"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="82"/>
@@ -6069,9 +6067,9 @@
       <c r="K128" s="89"/>
       <c r="L128" s="89"/>
       <c r="M128" s="90"/>
-      <c r="N128" s="77"/>
-      <c r="O128" s="73"/>
-      <c r="P128" s="74"/>
+      <c r="N128" s="81"/>
+      <c r="O128" s="77"/>
+      <c r="P128" s="78"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="82"/>
@@ -6087,9 +6085,9 @@
       <c r="K129" s="89"/>
       <c r="L129" s="89"/>
       <c r="M129" s="90"/>
-      <c r="N129" s="77"/>
-      <c r="O129" s="73"/>
-      <c r="P129" s="74"/>
+      <c r="N129" s="81"/>
+      <c r="O129" s="77"/>
+      <c r="P129" s="78"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="82"/>
@@ -6105,9 +6103,9 @@
       <c r="K130" s="89"/>
       <c r="L130" s="89"/>
       <c r="M130" s="90"/>
-      <c r="N130" s="77"/>
-      <c r="O130" s="73"/>
-      <c r="P130" s="74"/>
+      <c r="N130" s="81"/>
+      <c r="O130" s="77"/>
+      <c r="P130" s="78"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="82"/>
@@ -6123,9 +6121,9 @@
       <c r="K131" s="89"/>
       <c r="L131" s="89"/>
       <c r="M131" s="90"/>
-      <c r="N131" s="77"/>
-      <c r="O131" s="73"/>
-      <c r="P131" s="74"/>
+      <c r="N131" s="81"/>
+      <c r="O131" s="77"/>
+      <c r="P131" s="78"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="82"/>
@@ -6141,9 +6139,9 @@
       <c r="K132" s="89"/>
       <c r="L132" s="89"/>
       <c r="M132" s="90"/>
-      <c r="N132" s="77"/>
-      <c r="O132" s="73"/>
-      <c r="P132" s="74"/>
+      <c r="N132" s="81"/>
+      <c r="O132" s="77"/>
+      <c r="P132" s="78"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="82"/>
@@ -6159,9 +6157,9 @@
       <c r="K133" s="89"/>
       <c r="L133" s="89"/>
       <c r="M133" s="90"/>
-      <c r="N133" s="77"/>
-      <c r="O133" s="73"/>
-      <c r="P133" s="74"/>
+      <c r="N133" s="81"/>
+      <c r="O133" s="77"/>
+      <c r="P133" s="78"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="82"/>
@@ -6177,9 +6175,9 @@
       <c r="K134" s="89"/>
       <c r="L134" s="89"/>
       <c r="M134" s="90"/>
-      <c r="N134" s="77"/>
-      <c r="O134" s="73"/>
-      <c r="P134" s="74"/>
+      <c r="N134" s="81"/>
+      <c r="O134" s="77"/>
+      <c r="P134" s="78"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="82"/>
@@ -6195,9 +6193,9 @@
       <c r="K135" s="89"/>
       <c r="L135" s="89"/>
       <c r="M135" s="90"/>
-      <c r="N135" s="77"/>
-      <c r="O135" s="73"/>
-      <c r="P135" s="74"/>
+      <c r="N135" s="81"/>
+      <c r="O135" s="77"/>
+      <c r="P135" s="78"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="82"/>
@@ -6213,9 +6211,9 @@
       <c r="K136" s="89"/>
       <c r="L136" s="89"/>
       <c r="M136" s="90"/>
-      <c r="N136" s="77"/>
-      <c r="O136" s="73"/>
-      <c r="P136" s="74"/>
+      <c r="N136" s="81"/>
+      <c r="O136" s="77"/>
+      <c r="P136" s="78"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="82"/>
@@ -6231,9 +6229,9 @@
       <c r="K137" s="89"/>
       <c r="L137" s="89"/>
       <c r="M137" s="90"/>
-      <c r="N137" s="77"/>
-      <c r="O137" s="73"/>
-      <c r="P137" s="74"/>
+      <c r="N137" s="81"/>
+      <c r="O137" s="77"/>
+      <c r="P137" s="78"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="82"/>
@@ -6249,9 +6247,9 @@
       <c r="K138" s="89"/>
       <c r="L138" s="89"/>
       <c r="M138" s="90"/>
-      <c r="N138" s="77"/>
-      <c r="O138" s="73"/>
-      <c r="P138" s="74"/>
+      <c r="N138" s="81"/>
+      <c r="O138" s="77"/>
+      <c r="P138" s="78"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="82"/>
@@ -6267,9 +6265,9 @@
       <c r="K139" s="89"/>
       <c r="L139" s="89"/>
       <c r="M139" s="90"/>
-      <c r="N139" s="77"/>
-      <c r="O139" s="73"/>
-      <c r="P139" s="74"/>
+      <c r="N139" s="81"/>
+      <c r="O139" s="77"/>
+      <c r="P139" s="78"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="82"/>
@@ -6285,9 +6283,9 @@
       <c r="K140" s="89"/>
       <c r="L140" s="89"/>
       <c r="M140" s="90"/>
-      <c r="N140" s="77"/>
-      <c r="O140" s="73"/>
-      <c r="P140" s="74"/>
+      <c r="N140" s="81"/>
+      <c r="O140" s="77"/>
+      <c r="P140" s="78"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="82"/>
@@ -6303,9 +6301,9 @@
       <c r="K141" s="89"/>
       <c r="L141" s="89"/>
       <c r="M141" s="90"/>
-      <c r="N141" s="77"/>
-      <c r="O141" s="73"/>
-      <c r="P141" s="74"/>
+      <c r="N141" s="81"/>
+      <c r="O141" s="77"/>
+      <c r="P141" s="78"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="82"/>
@@ -6321,9 +6319,9 @@
       <c r="K142" s="89"/>
       <c r="L142" s="89"/>
       <c r="M142" s="90"/>
-      <c r="N142" s="77"/>
-      <c r="O142" s="73"/>
-      <c r="P142" s="74"/>
+      <c r="N142" s="81"/>
+      <c r="O142" s="77"/>
+      <c r="P142" s="78"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="82"/>
@@ -6339,9 +6337,9 @@
       <c r="K143" s="89"/>
       <c r="L143" s="89"/>
       <c r="M143" s="90"/>
-      <c r="N143" s="77"/>
-      <c r="O143" s="73"/>
-      <c r="P143" s="74"/>
+      <c r="N143" s="81"/>
+      <c r="O143" s="77"/>
+      <c r="P143" s="78"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="82"/>
@@ -6357,9 +6355,9 @@
       <c r="K144" s="89"/>
       <c r="L144" s="89"/>
       <c r="M144" s="90"/>
-      <c r="N144" s="77"/>
-      <c r="O144" s="73"/>
-      <c r="P144" s="74"/>
+      <c r="N144" s="81"/>
+      <c r="O144" s="77"/>
+      <c r="P144" s="78"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="82"/>
@@ -6375,9 +6373,9 @@
       <c r="K145" s="89"/>
       <c r="L145" s="89"/>
       <c r="M145" s="90"/>
-      <c r="N145" s="77"/>
-      <c r="O145" s="73"/>
-      <c r="P145" s="74"/>
+      <c r="N145" s="81"/>
+      <c r="O145" s="77"/>
+      <c r="P145" s="78"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="82"/>
@@ -6393,9 +6391,9 @@
       <c r="K146" s="89"/>
       <c r="L146" s="89"/>
       <c r="M146" s="90"/>
-      <c r="N146" s="77"/>
-      <c r="O146" s="73"/>
-      <c r="P146" s="74"/>
+      <c r="N146" s="81"/>
+      <c r="O146" s="77"/>
+      <c r="P146" s="78"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="82"/>
@@ -6411,9 +6409,9 @@
       <c r="K147" s="89"/>
       <c r="L147" s="89"/>
       <c r="M147" s="90"/>
-      <c r="N147" s="77"/>
-      <c r="O147" s="73"/>
-      <c r="P147" s="74"/>
+      <c r="N147" s="81"/>
+      <c r="O147" s="77"/>
+      <c r="P147" s="78"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="82"/>
@@ -6429,9 +6427,9 @@
       <c r="K148" s="89"/>
       <c r="L148" s="89"/>
       <c r="M148" s="90"/>
-      <c r="N148" s="77"/>
-      <c r="O148" s="73"/>
-      <c r="P148" s="74"/>
+      <c r="N148" s="81"/>
+      <c r="O148" s="77"/>
+      <c r="P148" s="78"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="82"/>
@@ -6447,9 +6445,9 @@
       <c r="K149" s="89"/>
       <c r="L149" s="89"/>
       <c r="M149" s="90"/>
-      <c r="N149" s="77"/>
-      <c r="O149" s="73"/>
-      <c r="P149" s="74"/>
+      <c r="N149" s="81"/>
+      <c r="O149" s="77"/>
+      <c r="P149" s="78"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="82"/>
@@ -6465,9 +6463,9 @@
       <c r="K150" s="89"/>
       <c r="L150" s="89"/>
       <c r="M150" s="90"/>
-      <c r="N150" s="77"/>
-      <c r="O150" s="73"/>
-      <c r="P150" s="74"/>
+      <c r="N150" s="81"/>
+      <c r="O150" s="77"/>
+      <c r="P150" s="78"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="82"/>
@@ -6483,9 +6481,9 @@
       <c r="K151" s="89"/>
       <c r="L151" s="89"/>
       <c r="M151" s="90"/>
-      <c r="N151" s="77"/>
-      <c r="O151" s="73"/>
-      <c r="P151" s="74"/>
+      <c r="N151" s="81"/>
+      <c r="O151" s="77"/>
+      <c r="P151" s="78"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="82"/>
@@ -6501,9 +6499,9 @@
       <c r="K152" s="89"/>
       <c r="L152" s="89"/>
       <c r="M152" s="90"/>
-      <c r="N152" s="77"/>
-      <c r="O152" s="73"/>
-      <c r="P152" s="74"/>
+      <c r="N152" s="81"/>
+      <c r="O152" s="77"/>
+      <c r="P152" s="78"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="82"/>
@@ -6519,9 +6517,9 @@
       <c r="K153" s="89"/>
       <c r="L153" s="89"/>
       <c r="M153" s="90"/>
-      <c r="N153" s="77"/>
-      <c r="O153" s="73"/>
-      <c r="P153" s="74"/>
+      <c r="N153" s="81"/>
+      <c r="O153" s="77"/>
+      <c r="P153" s="78"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="82"/>
@@ -6537,9 +6535,9 @@
       <c r="K154" s="89"/>
       <c r="L154" s="89"/>
       <c r="M154" s="90"/>
-      <c r="N154" s="77"/>
-      <c r="O154" s="73"/>
-      <c r="P154" s="74"/>
+      <c r="N154" s="81"/>
+      <c r="O154" s="77"/>
+      <c r="P154" s="78"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="82"/>
@@ -6555,9 +6553,9 @@
       <c r="K155" s="89"/>
       <c r="L155" s="89"/>
       <c r="M155" s="90"/>
-      <c r="N155" s="77"/>
-      <c r="O155" s="73"/>
-      <c r="P155" s="74"/>
+      <c r="N155" s="81"/>
+      <c r="O155" s="77"/>
+      <c r="P155" s="78"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="82"/>
@@ -6573,9 +6571,9 @@
       <c r="K156" s="89"/>
       <c r="L156" s="89"/>
       <c r="M156" s="90"/>
-      <c r="N156" s="77"/>
-      <c r="O156" s="73"/>
-      <c r="P156" s="74"/>
+      <c r="N156" s="81"/>
+      <c r="O156" s="77"/>
+      <c r="P156" s="78"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="82"/>
@@ -6591,9 +6589,9 @@
       <c r="K157" s="89"/>
       <c r="L157" s="89"/>
       <c r="M157" s="90"/>
-      <c r="N157" s="77"/>
-      <c r="O157" s="73"/>
-      <c r="P157" s="74"/>
+      <c r="N157" s="81"/>
+      <c r="O157" s="77"/>
+      <c r="P157" s="78"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="82"/>
@@ -6609,9 +6607,9 @@
       <c r="K158" s="89"/>
       <c r="L158" s="89"/>
       <c r="M158" s="90"/>
-      <c r="N158" s="77"/>
-      <c r="O158" s="73"/>
-      <c r="P158" s="74"/>
+      <c r="N158" s="81"/>
+      <c r="O158" s="77"/>
+      <c r="P158" s="78"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="82"/>
@@ -6627,9 +6625,9 @@
       <c r="K159" s="89"/>
       <c r="L159" s="89"/>
       <c r="M159" s="90"/>
-      <c r="N159" s="77"/>
-      <c r="O159" s="73"/>
-      <c r="P159" s="74"/>
+      <c r="N159" s="81"/>
+      <c r="O159" s="77"/>
+      <c r="P159" s="78"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="82"/>
@@ -6645,9 +6643,9 @@
       <c r="K160" s="89"/>
       <c r="L160" s="89"/>
       <c r="M160" s="90"/>
-      <c r="N160" s="77"/>
-      <c r="O160" s="73"/>
-      <c r="P160" s="74"/>
+      <c r="N160" s="81"/>
+      <c r="O160" s="77"/>
+      <c r="P160" s="78"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="82"/>
@@ -6663,9 +6661,9 @@
       <c r="K161" s="89"/>
       <c r="L161" s="89"/>
       <c r="M161" s="90"/>
-      <c r="N161" s="77"/>
-      <c r="O161" s="73"/>
-      <c r="P161" s="74"/>
+      <c r="N161" s="81"/>
+      <c r="O161" s="77"/>
+      <c r="P161" s="78"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="82"/>
@@ -6681,9 +6679,9 @@
       <c r="K162" s="89"/>
       <c r="L162" s="89"/>
       <c r="M162" s="90"/>
-      <c r="N162" s="77"/>
-      <c r="O162" s="73"/>
-      <c r="P162" s="74"/>
+      <c r="N162" s="81"/>
+      <c r="O162" s="77"/>
+      <c r="P162" s="78"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="82"/>
@@ -6699,9 +6697,9 @@
       <c r="K163" s="89"/>
       <c r="L163" s="89"/>
       <c r="M163" s="90"/>
-      <c r="N163" s="77"/>
-      <c r="O163" s="73"/>
-      <c r="P163" s="74"/>
+      <c r="N163" s="81"/>
+      <c r="O163" s="77"/>
+      <c r="P163" s="78"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="82"/>
@@ -6717,9 +6715,9 @@
       <c r="K164" s="89"/>
       <c r="L164" s="89"/>
       <c r="M164" s="90"/>
-      <c r="N164" s="77"/>
-      <c r="O164" s="73"/>
-      <c r="P164" s="74"/>
+      <c r="N164" s="81"/>
+      <c r="O164" s="77"/>
+      <c r="P164" s="78"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="82"/>
@@ -6735,9 +6733,9 @@
       <c r="K165" s="89"/>
       <c r="L165" s="89"/>
       <c r="M165" s="90"/>
-      <c r="N165" s="77"/>
-      <c r="O165" s="73"/>
-      <c r="P165" s="74"/>
+      <c r="N165" s="81"/>
+      <c r="O165" s="77"/>
+      <c r="P165" s="78"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="82"/>
@@ -6753,9 +6751,9 @@
       <c r="K166" s="89"/>
       <c r="L166" s="89"/>
       <c r="M166" s="90"/>
-      <c r="N166" s="77"/>
-      <c r="O166" s="73"/>
-      <c r="P166" s="74"/>
+      <c r="N166" s="81"/>
+      <c r="O166" s="77"/>
+      <c r="P166" s="78"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="82"/>
@@ -6771,9 +6769,9 @@
       <c r="K167" s="89"/>
       <c r="L167" s="89"/>
       <c r="M167" s="90"/>
-      <c r="N167" s="77"/>
-      <c r="O167" s="73"/>
-      <c r="P167" s="74"/>
+      <c r="N167" s="81"/>
+      <c r="O167" s="77"/>
+      <c r="P167" s="78"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="82"/>
@@ -6789,9 +6787,9 @@
       <c r="K168" s="89"/>
       <c r="L168" s="89"/>
       <c r="M168" s="90"/>
-      <c r="N168" s="77"/>
-      <c r="O168" s="73"/>
-      <c r="P168" s="74"/>
+      <c r="N168" s="81"/>
+      <c r="O168" s="77"/>
+      <c r="P168" s="78"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="82"/>
@@ -6807,9 +6805,9 @@
       <c r="K169" s="89"/>
       <c r="L169" s="89"/>
       <c r="M169" s="90"/>
-      <c r="N169" s="77"/>
-      <c r="O169" s="73"/>
-      <c r="P169" s="74"/>
+      <c r="N169" s="81"/>
+      <c r="O169" s="77"/>
+      <c r="P169" s="78"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="82"/>
@@ -6825,9 +6823,9 @@
       <c r="K170" s="89"/>
       <c r="L170" s="89"/>
       <c r="M170" s="90"/>
-      <c r="N170" s="77"/>
-      <c r="O170" s="73"/>
-      <c r="P170" s="74"/>
+      <c r="N170" s="81"/>
+      <c r="O170" s="77"/>
+      <c r="P170" s="78"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="82"/>
@@ -6843,9 +6841,9 @@
       <c r="K171" s="89"/>
       <c r="L171" s="89"/>
       <c r="M171" s="90"/>
-      <c r="N171" s="77"/>
-      <c r="O171" s="73"/>
-      <c r="P171" s="74"/>
+      <c r="N171" s="81"/>
+      <c r="O171" s="77"/>
+      <c r="P171" s="78"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="82"/>
@@ -6861,9 +6859,9 @@
       <c r="K172" s="89"/>
       <c r="L172" s="89"/>
       <c r="M172" s="90"/>
-      <c r="N172" s="77"/>
-      <c r="O172" s="73"/>
-      <c r="P172" s="74"/>
+      <c r="N172" s="81"/>
+      <c r="O172" s="77"/>
+      <c r="P172" s="78"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="82"/>
@@ -6879,9 +6877,9 @@
       <c r="K173" s="89"/>
       <c r="L173" s="89"/>
       <c r="M173" s="90"/>
-      <c r="N173" s="77"/>
-      <c r="O173" s="73"/>
-      <c r="P173" s="74"/>
+      <c r="N173" s="81"/>
+      <c r="O173" s="77"/>
+      <c r="P173" s="78"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="82"/>
@@ -6897,9 +6895,9 @@
       <c r="K174" s="89"/>
       <c r="L174" s="89"/>
       <c r="M174" s="90"/>
-      <c r="N174" s="77"/>
-      <c r="O174" s="73"/>
-      <c r="P174" s="74"/>
+      <c r="N174" s="81"/>
+      <c r="O174" s="77"/>
+      <c r="P174" s="78"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="82"/>
@@ -6915,9 +6913,9 @@
       <c r="K175" s="89"/>
       <c r="L175" s="89"/>
       <c r="M175" s="90"/>
-      <c r="N175" s="77"/>
-      <c r="O175" s="73"/>
-      <c r="P175" s="74"/>
+      <c r="N175" s="81"/>
+      <c r="O175" s="77"/>
+      <c r="P175" s="78"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="82"/>
@@ -6933,9 +6931,9 @@
       <c r="K176" s="89"/>
       <c r="L176" s="89"/>
       <c r="M176" s="90"/>
-      <c r="N176" s="77"/>
-      <c r="O176" s="73"/>
-      <c r="P176" s="74"/>
+      <c r="N176" s="81"/>
+      <c r="O176" s="77"/>
+      <c r="P176" s="78"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="82"/>
@@ -6951,9 +6949,9 @@
       <c r="K177" s="89"/>
       <c r="L177" s="89"/>
       <c r="M177" s="90"/>
-      <c r="N177" s="77"/>
-      <c r="O177" s="73"/>
-      <c r="P177" s="74"/>
+      <c r="N177" s="81"/>
+      <c r="O177" s="77"/>
+      <c r="P177" s="78"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="82"/>
@@ -6969,9 +6967,9 @@
       <c r="K178" s="89"/>
       <c r="L178" s="89"/>
       <c r="M178" s="90"/>
-      <c r="N178" s="77"/>
-      <c r="O178" s="73"/>
-      <c r="P178" s="74"/>
+      <c r="N178" s="81"/>
+      <c r="O178" s="77"/>
+      <c r="P178" s="78"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="82"/>
@@ -6987,9 +6985,9 @@
       <c r="K179" s="89"/>
       <c r="L179" s="89"/>
       <c r="M179" s="90"/>
-      <c r="N179" s="77"/>
-      <c r="O179" s="73"/>
-      <c r="P179" s="74"/>
+      <c r="N179" s="81"/>
+      <c r="O179" s="77"/>
+      <c r="P179" s="78"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="82"/>
@@ -7005,9 +7003,9 @@
       <c r="K180" s="89"/>
       <c r="L180" s="89"/>
       <c r="M180" s="90"/>
-      <c r="N180" s="77"/>
-      <c r="O180" s="73"/>
-      <c r="P180" s="74"/>
+      <c r="N180" s="81"/>
+      <c r="O180" s="77"/>
+      <c r="P180" s="78"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="82"/>
@@ -7023,9 +7021,9 @@
       <c r="K181" s="89"/>
       <c r="L181" s="89"/>
       <c r="M181" s="90"/>
-      <c r="N181" s="77"/>
-      <c r="O181" s="73"/>
-      <c r="P181" s="74"/>
+      <c r="N181" s="81"/>
+      <c r="O181" s="77"/>
+      <c r="P181" s="78"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="82"/>
@@ -7041,9 +7039,9 @@
       <c r="K182" s="89"/>
       <c r="L182" s="89"/>
       <c r="M182" s="90"/>
-      <c r="N182" s="77"/>
-      <c r="O182" s="73"/>
-      <c r="P182" s="74"/>
+      <c r="N182" s="81"/>
+      <c r="O182" s="77"/>
+      <c r="P182" s="78"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="82"/>
@@ -7059,9 +7057,9 @@
       <c r="K183" s="89"/>
       <c r="L183" s="89"/>
       <c r="M183" s="90"/>
-      <c r="N183" s="77"/>
-      <c r="O183" s="73"/>
-      <c r="P183" s="74"/>
+      <c r="N183" s="81"/>
+      <c r="O183" s="77"/>
+      <c r="P183" s="78"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="82"/>
@@ -7077,9 +7075,9 @@
       <c r="K184" s="89"/>
       <c r="L184" s="89"/>
       <c r="M184" s="90"/>
-      <c r="N184" s="77"/>
-      <c r="O184" s="73"/>
-      <c r="P184" s="74"/>
+      <c r="N184" s="81"/>
+      <c r="O184" s="77"/>
+      <c r="P184" s="78"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="82"/>
@@ -7095,9 +7093,9 @@
       <c r="K185" s="89"/>
       <c r="L185" s="89"/>
       <c r="M185" s="90"/>
-      <c r="N185" s="77"/>
-      <c r="O185" s="73"/>
-      <c r="P185" s="74"/>
+      <c r="N185" s="81"/>
+      <c r="O185" s="77"/>
+      <c r="P185" s="78"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="82"/>
@@ -7113,9 +7111,9 @@
       <c r="K186" s="89"/>
       <c r="L186" s="89"/>
       <c r="M186" s="90"/>
-      <c r="N186" s="77"/>
-      <c r="O186" s="73"/>
-      <c r="P186" s="74"/>
+      <c r="N186" s="81"/>
+      <c r="O186" s="77"/>
+      <c r="P186" s="78"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="82"/>
@@ -7131,9 +7129,9 @@
       <c r="K187" s="89"/>
       <c r="L187" s="89"/>
       <c r="M187" s="90"/>
-      <c r="N187" s="77"/>
-      <c r="O187" s="73"/>
-      <c r="P187" s="74"/>
+      <c r="N187" s="81"/>
+      <c r="O187" s="77"/>
+      <c r="P187" s="78"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="82"/>
@@ -7149,9 +7147,9 @@
       <c r="K188" s="89"/>
       <c r="L188" s="89"/>
       <c r="M188" s="90"/>
-      <c r="N188" s="77"/>
-      <c r="O188" s="73"/>
-      <c r="P188" s="74"/>
+      <c r="N188" s="81"/>
+      <c r="O188" s="77"/>
+      <c r="P188" s="78"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="82"/>
@@ -7167,9 +7165,9 @@
       <c r="K189" s="89"/>
       <c r="L189" s="89"/>
       <c r="M189" s="90"/>
-      <c r="N189" s="77"/>
-      <c r="O189" s="73"/>
-      <c r="P189" s="74"/>
+      <c r="N189" s="81"/>
+      <c r="O189" s="77"/>
+      <c r="P189" s="78"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="82"/>
@@ -7185,9 +7183,9 @@
       <c r="K190" s="89"/>
       <c r="L190" s="89"/>
       <c r="M190" s="90"/>
-      <c r="N190" s="77"/>
-      <c r="O190" s="73"/>
-      <c r="P190" s="74"/>
+      <c r="N190" s="81"/>
+      <c r="O190" s="77"/>
+      <c r="P190" s="78"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="82"/>
@@ -7203,9 +7201,9 @@
       <c r="K191" s="89"/>
       <c r="L191" s="89"/>
       <c r="M191" s="90"/>
-      <c r="N191" s="77"/>
-      <c r="O191" s="73"/>
-      <c r="P191" s="74"/>
+      <c r="N191" s="81"/>
+      <c r="O191" s="77"/>
+      <c r="P191" s="78"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="82"/>
@@ -7221,9 +7219,9 @@
       <c r="K192" s="89"/>
       <c r="L192" s="89"/>
       <c r="M192" s="90"/>
-      <c r="N192" s="77"/>
-      <c r="O192" s="73"/>
-      <c r="P192" s="74"/>
+      <c r="N192" s="81"/>
+      <c r="O192" s="77"/>
+      <c r="P192" s="78"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="82"/>
@@ -7239,9 +7237,9 @@
       <c r="K193" s="89"/>
       <c r="L193" s="89"/>
       <c r="M193" s="90"/>
-      <c r="N193" s="77"/>
-      <c r="O193" s="73"/>
-      <c r="P193" s="74"/>
+      <c r="N193" s="81"/>
+      <c r="O193" s="77"/>
+      <c r="P193" s="78"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="82"/>
@@ -7257,9 +7255,9 @@
       <c r="K194" s="89"/>
       <c r="L194" s="89"/>
       <c r="M194" s="90"/>
-      <c r="N194" s="77"/>
-      <c r="O194" s="73"/>
-      <c r="P194" s="74"/>
+      <c r="N194" s="81"/>
+      <c r="O194" s="77"/>
+      <c r="P194" s="78"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="82"/>
@@ -7275,9 +7273,9 @@
       <c r="K195" s="89"/>
       <c r="L195" s="89"/>
       <c r="M195" s="90"/>
-      <c r="N195" s="77"/>
-      <c r="O195" s="73"/>
-      <c r="P195" s="74"/>
+      <c r="N195" s="81"/>
+      <c r="O195" s="77"/>
+      <c r="P195" s="78"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="82"/>
@@ -7293,9 +7291,9 @@
       <c r="K196" s="89"/>
       <c r="L196" s="89"/>
       <c r="M196" s="90"/>
-      <c r="N196" s="77"/>
-      <c r="O196" s="73"/>
-      <c r="P196" s="74"/>
+      <c r="N196" s="81"/>
+      <c r="O196" s="77"/>
+      <c r="P196" s="78"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="82"/>
@@ -7311,9 +7309,9 @@
       <c r="K197" s="89"/>
       <c r="L197" s="89"/>
       <c r="M197" s="90"/>
-      <c r="N197" s="77"/>
-      <c r="O197" s="73"/>
-      <c r="P197" s="74"/>
+      <c r="N197" s="81"/>
+      <c r="O197" s="77"/>
+      <c r="P197" s="78"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="82"/>
@@ -7329,9 +7327,9 @@
       <c r="K198" s="89"/>
       <c r="L198" s="89"/>
       <c r="M198" s="90"/>
-      <c r="N198" s="77"/>
-      <c r="O198" s="73"/>
-      <c r="P198" s="74"/>
+      <c r="N198" s="81"/>
+      <c r="O198" s="77"/>
+      <c r="P198" s="78"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="82"/>
@@ -7347,9 +7345,9 @@
       <c r="K199" s="89"/>
       <c r="L199" s="89"/>
       <c r="M199" s="90"/>
-      <c r="N199" s="77"/>
-      <c r="O199" s="73"/>
-      <c r="P199" s="74"/>
+      <c r="N199" s="81"/>
+      <c r="O199" s="77"/>
+      <c r="P199" s="78"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="82"/>
@@ -7365,9 +7363,9 @@
       <c r="K200" s="89"/>
       <c r="L200" s="89"/>
       <c r="M200" s="90"/>
-      <c r="N200" s="77"/>
-      <c r="O200" s="73"/>
-      <c r="P200" s="74"/>
+      <c r="N200" s="81"/>
+      <c r="O200" s="77"/>
+      <c r="P200" s="78"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="82"/>
@@ -7383,9 +7381,9 @@
       <c r="K201" s="89"/>
       <c r="L201" s="89"/>
       <c r="M201" s="90"/>
-      <c r="N201" s="77"/>
-      <c r="O201" s="73"/>
-      <c r="P201" s="74"/>
+      <c r="N201" s="81"/>
+      <c r="O201" s="77"/>
+      <c r="P201" s="78"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="82"/>
@@ -7401,9 +7399,9 @@
       <c r="K202" s="89"/>
       <c r="L202" s="89"/>
       <c r="M202" s="90"/>
-      <c r="N202" s="77"/>
-      <c r="O202" s="73"/>
-      <c r="P202" s="74"/>
+      <c r="N202" s="81"/>
+      <c r="O202" s="77"/>
+      <c r="P202" s="78"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="82"/>
@@ -7419,9 +7417,9 @@
       <c r="K203" s="89"/>
       <c r="L203" s="89"/>
       <c r="M203" s="90"/>
-      <c r="N203" s="77"/>
-      <c r="O203" s="73"/>
-      <c r="P203" s="74"/>
+      <c r="N203" s="81"/>
+      <c r="O203" s="77"/>
+      <c r="P203" s="78"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="82"/>
@@ -7437,9 +7435,9 @@
       <c r="K204" s="89"/>
       <c r="L204" s="89"/>
       <c r="M204" s="90"/>
-      <c r="N204" s="77"/>
-      <c r="O204" s="73"/>
-      <c r="P204" s="74"/>
+      <c r="N204" s="81"/>
+      <c r="O204" s="77"/>
+      <c r="P204" s="78"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="82"/>
@@ -7455,9 +7453,9 @@
       <c r="K205" s="89"/>
       <c r="L205" s="89"/>
       <c r="M205" s="90"/>
-      <c r="N205" s="77"/>
-      <c r="O205" s="73"/>
-      <c r="P205" s="74"/>
+      <c r="N205" s="81"/>
+      <c r="O205" s="77"/>
+      <c r="P205" s="78"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="82"/>
@@ -7473,9 +7471,9 @@
       <c r="K206" s="89"/>
       <c r="L206" s="89"/>
       <c r="M206" s="90"/>
-      <c r="N206" s="77"/>
-      <c r="O206" s="73"/>
-      <c r="P206" s="74"/>
+      <c r="N206" s="81"/>
+      <c r="O206" s="77"/>
+      <c r="P206" s="78"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="82"/>
@@ -7491,9 +7489,9 @@
       <c r="K207" s="89"/>
       <c r="L207" s="89"/>
       <c r="M207" s="90"/>
-      <c r="N207" s="77"/>
-      <c r="O207" s="73"/>
-      <c r="P207" s="74"/>
+      <c r="N207" s="81"/>
+      <c r="O207" s="77"/>
+      <c r="P207" s="78"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="82"/>
@@ -7509,9 +7507,9 @@
       <c r="K208" s="89"/>
       <c r="L208" s="89"/>
       <c r="M208" s="90"/>
-      <c r="N208" s="77"/>
-      <c r="O208" s="73"/>
-      <c r="P208" s="74"/>
+      <c r="N208" s="81"/>
+      <c r="O208" s="77"/>
+      <c r="P208" s="78"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="82"/>
@@ -7527,9 +7525,9 @@
       <c r="K209" s="89"/>
       <c r="L209" s="89"/>
       <c r="M209" s="90"/>
-      <c r="N209" s="77"/>
-      <c r="O209" s="73"/>
-      <c r="P209" s="74"/>
+      <c r="N209" s="81"/>
+      <c r="O209" s="77"/>
+      <c r="P209" s="78"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="82"/>
@@ -7545,9 +7543,9 @@
       <c r="K210" s="89"/>
       <c r="L210" s="89"/>
       <c r="M210" s="90"/>
-      <c r="N210" s="77"/>
-      <c r="O210" s="73"/>
-      <c r="P210" s="74"/>
+      <c r="N210" s="81"/>
+      <c r="O210" s="77"/>
+      <c r="P210" s="78"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="82"/>
@@ -7563,9 +7561,9 @@
       <c r="K211" s="89"/>
       <c r="L211" s="89"/>
       <c r="M211" s="90"/>
-      <c r="N211" s="77"/>
-      <c r="O211" s="73"/>
-      <c r="P211" s="74"/>
+      <c r="N211" s="81"/>
+      <c r="O211" s="77"/>
+      <c r="P211" s="78"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="82"/>
@@ -7581,9 +7579,9 @@
       <c r="K212" s="89"/>
       <c r="L212" s="89"/>
       <c r="M212" s="90"/>
-      <c r="N212" s="77"/>
-      <c r="O212" s="73"/>
-      <c r="P212" s="74"/>
+      <c r="N212" s="81"/>
+      <c r="O212" s="77"/>
+      <c r="P212" s="78"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="82"/>
@@ -7599,9 +7597,9 @@
       <c r="K213" s="89"/>
       <c r="L213" s="89"/>
       <c r="M213" s="90"/>
-      <c r="N213" s="77"/>
-      <c r="O213" s="73"/>
-      <c r="P213" s="74"/>
+      <c r="N213" s="81"/>
+      <c r="O213" s="77"/>
+      <c r="P213" s="78"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="82"/>
@@ -7617,9 +7615,9 @@
       <c r="K214" s="89"/>
       <c r="L214" s="89"/>
       <c r="M214" s="90"/>
-      <c r="N214" s="77"/>
-      <c r="O214" s="73"/>
-      <c r="P214" s="74"/>
+      <c r="N214" s="81"/>
+      <c r="O214" s="77"/>
+      <c r="P214" s="78"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="82"/>
@@ -7635,9 +7633,9 @@
       <c r="K215" s="89"/>
       <c r="L215" s="89"/>
       <c r="M215" s="90"/>
-      <c r="N215" s="77"/>
-      <c r="O215" s="73"/>
-      <c r="P215" s="74"/>
+      <c r="N215" s="81"/>
+      <c r="O215" s="77"/>
+      <c r="P215" s="78"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="82"/>
@@ -7653,9 +7651,9 @@
       <c r="K216" s="89"/>
       <c r="L216" s="89"/>
       <c r="M216" s="90"/>
-      <c r="N216" s="77"/>
-      <c r="O216" s="73"/>
-      <c r="P216" s="74"/>
+      <c r="N216" s="81"/>
+      <c r="O216" s="77"/>
+      <c r="P216" s="78"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="82"/>
@@ -7671,9 +7669,9 @@
       <c r="K217" s="89"/>
       <c r="L217" s="89"/>
       <c r="M217" s="90"/>
-      <c r="N217" s="77"/>
-      <c r="O217" s="73"/>
-      <c r="P217" s="74"/>
+      <c r="N217" s="81"/>
+      <c r="O217" s="77"/>
+      <c r="P217" s="78"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="82"/>
@@ -7689,9 +7687,9 @@
       <c r="K218" s="89"/>
       <c r="L218" s="89"/>
       <c r="M218" s="90"/>
-      <c r="N218" s="77"/>
-      <c r="O218" s="73"/>
-      <c r="P218" s="74"/>
+      <c r="N218" s="81"/>
+      <c r="O218" s="77"/>
+      <c r="P218" s="78"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="82"/>
@@ -7707,9 +7705,9 @@
       <c r="K219" s="89"/>
       <c r="L219" s="89"/>
       <c r="M219" s="90"/>
-      <c r="N219" s="77"/>
-      <c r="O219" s="73"/>
-      <c r="P219" s="74"/>
+      <c r="N219" s="81"/>
+      <c r="O219" s="77"/>
+      <c r="P219" s="78"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="82"/>
@@ -7725,9 +7723,9 @@
       <c r="K220" s="89"/>
       <c r="L220" s="89"/>
       <c r="M220" s="90"/>
-      <c r="N220" s="77"/>
-      <c r="O220" s="73"/>
-      <c r="P220" s="74"/>
+      <c r="N220" s="81"/>
+      <c r="O220" s="77"/>
+      <c r="P220" s="78"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -8537,2254 +8535,2254 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11">
+      <c r="A2" s="17">
         <v>2.0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="18">
         <v>43377.0</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <f t="shared" ref="C2:C4" si="1">sum(D2,F2,H2,J2)</f>
         <v>98</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>38.0</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="21">
         <v>43169.0</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="20">
         <v>12.0</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="21">
         <v>43315.0</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="20">
         <v>21.0</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="21">
         <v>43298.0</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="20">
         <v>27.0</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="21">
         <v>43257.0</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="22">
         <v>42935.0</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="33">
+      <c r="O2" s="23"/>
+      <c r="P2" s="24">
         <f t="shared" ref="P2:P4" si="2">minus(B2,L2)/7</f>
         <v>63.14285714</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2:Q4" si="3">MINUS(B2,E2)/7</f>
         <v>29.71428571</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="24">
         <f t="shared" ref="R2:R4" si="4">minus(B2,G2)/7</f>
         <v>8.857142857</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="24">
         <f t="shared" ref="S2:S4" si="5">minus(B2,I2)/7</f>
         <v>11.28571429</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="24">
         <f t="shared" ref="T2:T4" si="6">minus(B2,K2)/7</f>
         <v>17.14285714</v>
       </c>
-      <c r="U2" s="30">
+      <c r="U2" s="23">
         <v>3.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="17">
         <v>3.0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="18">
         <v>43384.0</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="20">
         <v>41.0</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="21">
         <v>43361.0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="20">
         <v>11.0</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="21">
         <v>43339.0</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="20">
         <v>27.0</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="27">
         <v>43298.0</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="20">
         <v>2.0</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="27">
         <v>43383.0</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="22">
         <v>42977.0</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="33">
+      <c r="O3" s="23"/>
+      <c r="P3" s="24">
         <f t="shared" si="2"/>
         <v>58.14285714</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="24">
         <f t="shared" si="3"/>
         <v>3.285714286</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="24">
         <f t="shared" si="4"/>
         <v>6.428571429</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="24">
         <f t="shared" si="5"/>
         <v>12.28571429</v>
       </c>
-      <c r="T3" s="33">
+      <c r="T3" s="24">
         <f t="shared" si="6"/>
         <v>0.1428571429</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="23">
         <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="17">
         <v>4.0</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="18">
         <v>43391.0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>44.0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="21">
         <v>43368.0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>3.0</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="21">
         <v>43367.0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="20">
         <v>11.0</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="21">
         <v>43361.0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="20">
         <v>0.0</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="27">
         <v>43391.0</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="22">
         <v>43116.0</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="33">
+      <c r="O4" s="23"/>
+      <c r="P4" s="24">
         <f t="shared" si="2"/>
         <v>39.28571429</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="24">
         <f t="shared" si="3"/>
         <v>3.285714286</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="24">
         <f t="shared" si="4"/>
         <v>3.428571429</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="24">
         <f t="shared" si="5"/>
         <v>4.285714286</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="23">
         <v>3.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="53"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="30"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="33"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="53"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="30"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="33"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="53"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="30"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="33"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="53"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="30"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="33"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="53"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="30"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="33"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="53"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="30"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="33"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="53"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="30"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="33"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="53"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="30"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="33"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="53"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="30"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="33"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="53"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="30"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="33"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="53"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="30"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="33"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="53"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="30"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="33"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="53"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="30"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="33"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="53"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="30"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="33"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="53"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="30"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="33"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="53"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="30"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="33"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="53"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="30"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="33"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="53"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="30"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="33"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="53"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="30"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="33"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="53"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="30"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="33"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="53"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="30"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="33"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="53"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="30"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="33"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="53"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="30"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="33"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="53"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="30"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="33"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="53"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="30"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="33"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="53"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="30"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="33"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="53"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="30"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="33"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="53"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="30"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="33"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="53"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="30"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="33"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="53"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="30"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="33"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="53"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="30"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="33"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="53"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="30"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="33"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="53"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="30"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="33"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="53"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="78"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="33"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="54"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="80"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
+      <c r="C39" s="58"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="81"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="61"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
-      <c r="T56" s="81"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="81"/>
-      <c r="S57" s="81"/>
-      <c r="T57" s="81"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="61"/>
+      <c r="T57" s="61"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
-      <c r="R58" s="81"/>
-      <c r="S58" s="81"/>
-      <c r="T58" s="81"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="61"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="61"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="P59" s="81"/>
-      <c r="Q59" s="81"/>
-      <c r="R59" s="81"/>
-      <c r="S59" s="81"/>
-      <c r="T59" s="81"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="81"/>
-      <c r="S60" s="81"/>
-      <c r="T60" s="81"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="61"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="81"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="61"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="P62" s="81"/>
-      <c r="Q62" s="81"/>
-      <c r="R62" s="81"/>
-      <c r="S62" s="81"/>
-      <c r="T62" s="81"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="81"/>
-      <c r="S63" s="81"/>
-      <c r="T63" s="81"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="P64" s="81"/>
-      <c r="Q64" s="81"/>
-      <c r="R64" s="81"/>
-      <c r="S64" s="81"/>
-      <c r="T64" s="81"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="P65" s="81"/>
-      <c r="Q65" s="81"/>
-      <c r="R65" s="81"/>
-      <c r="S65" s="81"/>
-      <c r="T65" s="81"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="P66" s="81"/>
-      <c r="Q66" s="81"/>
-      <c r="R66" s="81"/>
-      <c r="S66" s="81"/>
-      <c r="T66" s="81"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="P67" s="81"/>
-      <c r="Q67" s="81"/>
-      <c r="R67" s="81"/>
-      <c r="S67" s="81"/>
-      <c r="T67" s="81"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="P68" s="81"/>
-      <c r="Q68" s="81"/>
-      <c r="R68" s="81"/>
-      <c r="S68" s="81"/>
-      <c r="T68" s="81"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="P69" s="81"/>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="81"/>
-      <c r="S69" s="81"/>
-      <c r="T69" s="81"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="61"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="61"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="81"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="61"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="P72" s="81"/>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="81"/>
-      <c r="T72" s="81"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="P73" s="81"/>
-      <c r="Q73" s="81"/>
-      <c r="R73" s="81"/>
-      <c r="S73" s="81"/>
-      <c r="T73" s="81"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="61"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="P74" s="81"/>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="81"/>
-      <c r="S74" s="81"/>
-      <c r="T74" s="81"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="61"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="P75" s="81"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="81"/>
-      <c r="S75" s="81"/>
-      <c r="T75" s="81"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="61"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="P76" s="81"/>
-      <c r="Q76" s="81"/>
-      <c r="R76" s="81"/>
-      <c r="S76" s="81"/>
-      <c r="T76" s="81"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="61"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="P77" s="81"/>
-      <c r="Q77" s="81"/>
-      <c r="R77" s="81"/>
-      <c r="S77" s="81"/>
-      <c r="T77" s="81"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
+      <c r="S77" s="61"/>
+      <c r="T77" s="61"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="P78" s="81"/>
-      <c r="Q78" s="81"/>
-      <c r="R78" s="81"/>
-      <c r="S78" s="81"/>
-      <c r="T78" s="81"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="61"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="P79" s="81"/>
-      <c r="Q79" s="81"/>
-      <c r="R79" s="81"/>
-      <c r="S79" s="81"/>
-      <c r="T79" s="81"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="61"/>
+      <c r="S79" s="61"/>
+      <c r="T79" s="61"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="P80" s="81"/>
-      <c r="Q80" s="81"/>
-      <c r="R80" s="81"/>
-      <c r="S80" s="81"/>
-      <c r="T80" s="81"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
+      <c r="S80" s="61"/>
+      <c r="T80" s="61"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="P81" s="81"/>
-      <c r="Q81" s="81"/>
-      <c r="R81" s="81"/>
-      <c r="S81" s="81"/>
-      <c r="T81" s="81"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="61"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="P82" s="81"/>
-      <c r="Q82" s="81"/>
-      <c r="R82" s="81"/>
-      <c r="S82" s="81"/>
-      <c r="T82" s="81"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="P83" s="81"/>
-      <c r="Q83" s="81"/>
-      <c r="R83" s="81"/>
-      <c r="S83" s="81"/>
-      <c r="T83" s="81"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="61"/>
+      <c r="S83" s="61"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="P84" s="81"/>
-      <c r="Q84" s="81"/>
-      <c r="R84" s="81"/>
-      <c r="S84" s="81"/>
-      <c r="T84" s="81"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="61"/>
+      <c r="T84" s="61"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="P85" s="81"/>
-      <c r="Q85" s="81"/>
-      <c r="R85" s="81"/>
-      <c r="S85" s="81"/>
-      <c r="T85" s="81"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
+      <c r="S85" s="61"/>
+      <c r="T85" s="61"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="P86" s="81"/>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="81"/>
-      <c r="S86" s="81"/>
-      <c r="T86" s="81"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
+      <c r="S86" s="61"/>
+      <c r="T86" s="61"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="61"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="61"/>
+      <c r="R88" s="61"/>
+      <c r="S88" s="61"/>
+      <c r="T88" s="61"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="P89" s="81"/>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
-      <c r="T89" s="81"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="61"/>
+      <c r="S89" s="61"/>
+      <c r="T89" s="61"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="P90" s="81"/>
-      <c r="Q90" s="81"/>
-      <c r="R90" s="81"/>
-      <c r="S90" s="81"/>
-      <c r="T90" s="81"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="P91" s="81"/>
-      <c r="Q91" s="81"/>
-      <c r="R91" s="81"/>
-      <c r="S91" s="81"/>
-      <c r="T91" s="81"/>
+      <c r="P91" s="61"/>
+      <c r="Q91" s="61"/>
+      <c r="R91" s="61"/>
+      <c r="S91" s="61"/>
+      <c r="T91" s="61"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="P92" s="81"/>
-      <c r="Q92" s="81"/>
-      <c r="R92" s="81"/>
-      <c r="S92" s="81"/>
-      <c r="T92" s="81"/>
+      <c r="P92" s="61"/>
+      <c r="Q92" s="61"/>
+      <c r="R92" s="61"/>
+      <c r="S92" s="61"/>
+      <c r="T92" s="61"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="P93" s="81"/>
-      <c r="Q93" s="81"/>
-      <c r="R93" s="81"/>
-      <c r="S93" s="81"/>
-      <c r="T93" s="81"/>
+      <c r="P93" s="61"/>
+      <c r="Q93" s="61"/>
+      <c r="R93" s="61"/>
+      <c r="S93" s="61"/>
+      <c r="T93" s="61"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="P94" s="81"/>
-      <c r="Q94" s="81"/>
-      <c r="R94" s="81"/>
-      <c r="S94" s="81"/>
-      <c r="T94" s="81"/>
+      <c r="P94" s="61"/>
+      <c r="Q94" s="61"/>
+      <c r="R94" s="61"/>
+      <c r="S94" s="61"/>
+      <c r="T94" s="61"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="P95" s="81"/>
-      <c r="Q95" s="81"/>
-      <c r="R95" s="81"/>
-      <c r="S95" s="81"/>
-      <c r="T95" s="81"/>
+      <c r="P95" s="61"/>
+      <c r="Q95" s="61"/>
+      <c r="R95" s="61"/>
+      <c r="S95" s="61"/>
+      <c r="T95" s="61"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="P96" s="81"/>
-      <c r="Q96" s="81"/>
-      <c r="R96" s="81"/>
-      <c r="S96" s="81"/>
-      <c r="T96" s="81"/>
+      <c r="P96" s="61"/>
+      <c r="Q96" s="61"/>
+      <c r="R96" s="61"/>
+      <c r="S96" s="61"/>
+      <c r="T96" s="61"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="P97" s="81"/>
-      <c r="Q97" s="81"/>
-      <c r="R97" s="81"/>
-      <c r="S97" s="81"/>
-      <c r="T97" s="81"/>
+      <c r="P97" s="61"/>
+      <c r="Q97" s="61"/>
+      <c r="R97" s="61"/>
+      <c r="S97" s="61"/>
+      <c r="T97" s="61"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="P98" s="81"/>
-      <c r="Q98" s="81"/>
-      <c r="R98" s="81"/>
-      <c r="S98" s="81"/>
-      <c r="T98" s="81"/>
+      <c r="P98" s="61"/>
+      <c r="Q98" s="61"/>
+      <c r="R98" s="61"/>
+      <c r="S98" s="61"/>
+      <c r="T98" s="61"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="P99" s="81"/>
-      <c r="Q99" s="81"/>
-      <c r="R99" s="81"/>
-      <c r="S99" s="81"/>
-      <c r="T99" s="81"/>
+      <c r="P99" s="61"/>
+      <c r="Q99" s="61"/>
+      <c r="R99" s="61"/>
+      <c r="S99" s="61"/>
+      <c r="T99" s="61"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="P100" s="81"/>
-      <c r="Q100" s="81"/>
-      <c r="R100" s="81"/>
-      <c r="S100" s="81"/>
-      <c r="T100" s="81"/>
+      <c r="P100" s="61"/>
+      <c r="Q100" s="61"/>
+      <c r="R100" s="61"/>
+      <c r="S100" s="61"/>
+      <c r="T100" s="61"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="P101" s="81"/>
-      <c r="Q101" s="81"/>
-      <c r="R101" s="81"/>
-      <c r="S101" s="81"/>
-      <c r="T101" s="81"/>
+      <c r="P101" s="61"/>
+      <c r="Q101" s="61"/>
+      <c r="R101" s="61"/>
+      <c r="S101" s="61"/>
+      <c r="T101" s="61"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="P102" s="81"/>
-      <c r="Q102" s="81"/>
-      <c r="R102" s="81"/>
-      <c r="S102" s="81"/>
-      <c r="T102" s="81"/>
+      <c r="P102" s="61"/>
+      <c r="Q102" s="61"/>
+      <c r="R102" s="61"/>
+      <c r="S102" s="61"/>
+      <c r="T102" s="61"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="P103" s="81"/>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="81"/>
-      <c r="S103" s="81"/>
-      <c r="T103" s="81"/>
+      <c r="P103" s="61"/>
+      <c r="Q103" s="61"/>
+      <c r="R103" s="61"/>
+      <c r="S103" s="61"/>
+      <c r="T103" s="61"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
+      <c r="P104" s="61"/>
+      <c r="Q104" s="61"/>
+      <c r="R104" s="61"/>
+      <c r="S104" s="61"/>
+      <c r="T104" s="61"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="P105" s="81"/>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
-      <c r="T105" s="81"/>
+      <c r="P105" s="61"/>
+      <c r="Q105" s="61"/>
+      <c r="R105" s="61"/>
+      <c r="S105" s="61"/>
+      <c r="T105" s="61"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="P106" s="81"/>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
-      <c r="T106" s="81"/>
+      <c r="P106" s="61"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="61"/>
+      <c r="S106" s="61"/>
+      <c r="T106" s="61"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="P107" s="81"/>
-      <c r="Q107" s="81"/>
-      <c r="R107" s="81"/>
-      <c r="S107" s="81"/>
-      <c r="T107" s="81"/>
+      <c r="P107" s="61"/>
+      <c r="Q107" s="61"/>
+      <c r="R107" s="61"/>
+      <c r="S107" s="61"/>
+      <c r="T107" s="61"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="P108" s="81"/>
-      <c r="Q108" s="81"/>
-      <c r="R108" s="81"/>
-      <c r="S108" s="81"/>
-      <c r="T108" s="81"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="61"/>
+      <c r="R108" s="61"/>
+      <c r="S108" s="61"/>
+      <c r="T108" s="61"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="P109" s="81"/>
-      <c r="Q109" s="81"/>
-      <c r="R109" s="81"/>
-      <c r="S109" s="81"/>
-      <c r="T109" s="81"/>
+      <c r="P109" s="61"/>
+      <c r="Q109" s="61"/>
+      <c r="R109" s="61"/>
+      <c r="S109" s="61"/>
+      <c r="T109" s="61"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="P110" s="81"/>
-      <c r="Q110" s="81"/>
-      <c r="R110" s="81"/>
-      <c r="S110" s="81"/>
-      <c r="T110" s="81"/>
+      <c r="P110" s="61"/>
+      <c r="Q110" s="61"/>
+      <c r="R110" s="61"/>
+      <c r="S110" s="61"/>
+      <c r="T110" s="61"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="P111" s="81"/>
-      <c r="Q111" s="81"/>
-      <c r="R111" s="81"/>
-      <c r="S111" s="81"/>
-      <c r="T111" s="81"/>
+      <c r="P111" s="61"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="61"/>
+      <c r="S111" s="61"/>
+      <c r="T111" s="61"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="P112" s="81"/>
-      <c r="Q112" s="81"/>
-      <c r="R112" s="81"/>
-      <c r="S112" s="81"/>
-      <c r="T112" s="81"/>
+      <c r="P112" s="61"/>
+      <c r="Q112" s="61"/>
+      <c r="R112" s="61"/>
+      <c r="S112" s="61"/>
+      <c r="T112" s="61"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="P113" s="81"/>
-      <c r="Q113" s="81"/>
-      <c r="R113" s="81"/>
-      <c r="S113" s="81"/>
-      <c r="T113" s="81"/>
+      <c r="P113" s="61"/>
+      <c r="Q113" s="61"/>
+      <c r="R113" s="61"/>
+      <c r="S113" s="61"/>
+      <c r="T113" s="61"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="P114" s="81"/>
-      <c r="Q114" s="81"/>
-      <c r="R114" s="81"/>
-      <c r="S114" s="81"/>
-      <c r="T114" s="81"/>
+      <c r="P114" s="61"/>
+      <c r="Q114" s="61"/>
+      <c r="R114" s="61"/>
+      <c r="S114" s="61"/>
+      <c r="T114" s="61"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="P115" s="81"/>
-      <c r="Q115" s="81"/>
-      <c r="R115" s="81"/>
-      <c r="S115" s="81"/>
-      <c r="T115" s="81"/>
+      <c r="P115" s="61"/>
+      <c r="Q115" s="61"/>
+      <c r="R115" s="61"/>
+      <c r="S115" s="61"/>
+      <c r="T115" s="61"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="P116" s="81"/>
-      <c r="Q116" s="81"/>
-      <c r="R116" s="81"/>
-      <c r="S116" s="81"/>
-      <c r="T116" s="81"/>
+      <c r="P116" s="61"/>
+      <c r="Q116" s="61"/>
+      <c r="R116" s="61"/>
+      <c r="S116" s="61"/>
+      <c r="T116" s="61"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="P117" s="81"/>
-      <c r="Q117" s="81"/>
-      <c r="R117" s="81"/>
-      <c r="S117" s="81"/>
-      <c r="T117" s="81"/>
+      <c r="P117" s="61"/>
+      <c r="Q117" s="61"/>
+      <c r="R117" s="61"/>
+      <c r="S117" s="61"/>
+      <c r="T117" s="61"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="P118" s="81"/>
-      <c r="Q118" s="81"/>
-      <c r="R118" s="81"/>
-      <c r="S118" s="81"/>
-      <c r="T118" s="81"/>
+      <c r="P118" s="61"/>
+      <c r="Q118" s="61"/>
+      <c r="R118" s="61"/>
+      <c r="S118" s="61"/>
+      <c r="T118" s="61"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="P119" s="81"/>
-      <c r="Q119" s="81"/>
-      <c r="R119" s="81"/>
-      <c r="S119" s="81"/>
-      <c r="T119" s="81"/>
+      <c r="P119" s="61"/>
+      <c r="Q119" s="61"/>
+      <c r="R119" s="61"/>
+      <c r="S119" s="61"/>
+      <c r="T119" s="61"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="P120" s="81"/>
-      <c r="Q120" s="81"/>
-      <c r="R120" s="81"/>
-      <c r="S120" s="81"/>
-      <c r="T120" s="81"/>
+      <c r="P120" s="61"/>
+      <c r="Q120" s="61"/>
+      <c r="R120" s="61"/>
+      <c r="S120" s="61"/>
+      <c r="T120" s="61"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="P121" s="81"/>
-      <c r="Q121" s="81"/>
-      <c r="R121" s="81"/>
-      <c r="S121" s="81"/>
-      <c r="T121" s="81"/>
+      <c r="P121" s="61"/>
+      <c r="Q121" s="61"/>
+      <c r="R121" s="61"/>
+      <c r="S121" s="61"/>
+      <c r="T121" s="61"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="P122" s="81"/>
-      <c r="Q122" s="81"/>
-      <c r="R122" s="81"/>
-      <c r="S122" s="81"/>
-      <c r="T122" s="81"/>
+      <c r="P122" s="61"/>
+      <c r="Q122" s="61"/>
+      <c r="R122" s="61"/>
+      <c r="S122" s="61"/>
+      <c r="T122" s="61"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="P123" s="81"/>
-      <c r="Q123" s="81"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
-      <c r="T123" s="81"/>
+      <c r="P123" s="61"/>
+      <c r="Q123" s="61"/>
+      <c r="R123" s="61"/>
+      <c r="S123" s="61"/>
+      <c r="T123" s="61"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="P124" s="81"/>
-      <c r="Q124" s="81"/>
-      <c r="R124" s="81"/>
-      <c r="S124" s="81"/>
-      <c r="T124" s="81"/>
+      <c r="P124" s="61"/>
+      <c r="Q124" s="61"/>
+      <c r="R124" s="61"/>
+      <c r="S124" s="61"/>
+      <c r="T124" s="61"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="P125" s="81"/>
-      <c r="Q125" s="81"/>
-      <c r="R125" s="81"/>
-      <c r="S125" s="81"/>
-      <c r="T125" s="81"/>
+      <c r="P125" s="61"/>
+      <c r="Q125" s="61"/>
+      <c r="R125" s="61"/>
+      <c r="S125" s="61"/>
+      <c r="T125" s="61"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="P126" s="81"/>
-      <c r="Q126" s="81"/>
-      <c r="R126" s="81"/>
-      <c r="S126" s="81"/>
-      <c r="T126" s="81"/>
+      <c r="P126" s="61"/>
+      <c r="Q126" s="61"/>
+      <c r="R126" s="61"/>
+      <c r="S126" s="61"/>
+      <c r="T126" s="61"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="P127" s="81"/>
-      <c r="Q127" s="81"/>
-      <c r="R127" s="81"/>
-      <c r="S127" s="81"/>
-      <c r="T127" s="81"/>
+      <c r="P127" s="61"/>
+      <c r="Q127" s="61"/>
+      <c r="R127" s="61"/>
+      <c r="S127" s="61"/>
+      <c r="T127" s="61"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="P128" s="81"/>
-      <c r="Q128" s="81"/>
-      <c r="R128" s="81"/>
-      <c r="S128" s="81"/>
-      <c r="T128" s="81"/>
+      <c r="P128" s="61"/>
+      <c r="Q128" s="61"/>
+      <c r="R128" s="61"/>
+      <c r="S128" s="61"/>
+      <c r="T128" s="61"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="P129" s="81"/>
-      <c r="Q129" s="81"/>
-      <c r="R129" s="81"/>
-      <c r="S129" s="81"/>
-      <c r="T129" s="81"/>
+      <c r="P129" s="61"/>
+      <c r="Q129" s="61"/>
+      <c r="R129" s="61"/>
+      <c r="S129" s="61"/>
+      <c r="T129" s="61"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="P130" s="81"/>
-      <c r="Q130" s="81"/>
-      <c r="R130" s="81"/>
-      <c r="S130" s="81"/>
-      <c r="T130" s="81"/>
+      <c r="P130" s="61"/>
+      <c r="Q130" s="61"/>
+      <c r="R130" s="61"/>
+      <c r="S130" s="61"/>
+      <c r="T130" s="61"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="P131" s="81"/>
-      <c r="Q131" s="81"/>
-      <c r="R131" s="81"/>
-      <c r="S131" s="81"/>
-      <c r="T131" s="81"/>
+      <c r="P131" s="61"/>
+      <c r="Q131" s="61"/>
+      <c r="R131" s="61"/>
+      <c r="S131" s="61"/>
+      <c r="T131" s="61"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="P132" s="81"/>
-      <c r="Q132" s="81"/>
-      <c r="R132" s="81"/>
-      <c r="S132" s="81"/>
-      <c r="T132" s="81"/>
+      <c r="P132" s="61"/>
+      <c r="Q132" s="61"/>
+      <c r="R132" s="61"/>
+      <c r="S132" s="61"/>
+      <c r="T132" s="61"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="P133" s="81"/>
-      <c r="Q133" s="81"/>
-      <c r="R133" s="81"/>
-      <c r="S133" s="81"/>
-      <c r="T133" s="81"/>
+      <c r="P133" s="61"/>
+      <c r="Q133" s="61"/>
+      <c r="R133" s="61"/>
+      <c r="S133" s="61"/>
+      <c r="T133" s="61"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="P134" s="81"/>
-      <c r="Q134" s="81"/>
-      <c r="R134" s="81"/>
-      <c r="S134" s="81"/>
-      <c r="T134" s="81"/>
+      <c r="P134" s="61"/>
+      <c r="Q134" s="61"/>
+      <c r="R134" s="61"/>
+      <c r="S134" s="61"/>
+      <c r="T134" s="61"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="P135" s="81"/>
-      <c r="Q135" s="81"/>
-      <c r="R135" s="81"/>
-      <c r="S135" s="81"/>
-      <c r="T135" s="81"/>
+      <c r="P135" s="61"/>
+      <c r="Q135" s="61"/>
+      <c r="R135" s="61"/>
+      <c r="S135" s="61"/>
+      <c r="T135" s="61"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="P136" s="81"/>
-      <c r="Q136" s="81"/>
-      <c r="R136" s="81"/>
-      <c r="S136" s="81"/>
-      <c r="T136" s="81"/>
+      <c r="P136" s="61"/>
+      <c r="Q136" s="61"/>
+      <c r="R136" s="61"/>
+      <c r="S136" s="61"/>
+      <c r="T136" s="61"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="P137" s="81"/>
-      <c r="Q137" s="81"/>
-      <c r="R137" s="81"/>
-      <c r="S137" s="81"/>
-      <c r="T137" s="81"/>
+      <c r="P137" s="61"/>
+      <c r="Q137" s="61"/>
+      <c r="R137" s="61"/>
+      <c r="S137" s="61"/>
+      <c r="T137" s="61"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="P138" s="81"/>
-      <c r="Q138" s="81"/>
-      <c r="R138" s="81"/>
-      <c r="S138" s="81"/>
-      <c r="T138" s="81"/>
+      <c r="P138" s="61"/>
+      <c r="Q138" s="61"/>
+      <c r="R138" s="61"/>
+      <c r="S138" s="61"/>
+      <c r="T138" s="61"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="P139" s="81"/>
-      <c r="Q139" s="81"/>
-      <c r="R139" s="81"/>
-      <c r="S139" s="81"/>
-      <c r="T139" s="81"/>
+      <c r="P139" s="61"/>
+      <c r="Q139" s="61"/>
+      <c r="R139" s="61"/>
+      <c r="S139" s="61"/>
+      <c r="T139" s="61"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="P140" s="81"/>
-      <c r="Q140" s="81"/>
-      <c r="R140" s="81"/>
-      <c r="S140" s="81"/>
-      <c r="T140" s="81"/>
+      <c r="P140" s="61"/>
+      <c r="Q140" s="61"/>
+      <c r="R140" s="61"/>
+      <c r="S140" s="61"/>
+      <c r="T140" s="61"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="P141" s="81"/>
-      <c r="Q141" s="81"/>
-      <c r="R141" s="81"/>
-      <c r="S141" s="81"/>
-      <c r="T141" s="81"/>
+      <c r="P141" s="61"/>
+      <c r="Q141" s="61"/>
+      <c r="R141" s="61"/>
+      <c r="S141" s="61"/>
+      <c r="T141" s="61"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="P142" s="81"/>
-      <c r="Q142" s="81"/>
-      <c r="R142" s="81"/>
-      <c r="S142" s="81"/>
-      <c r="T142" s="81"/>
+      <c r="P142" s="61"/>
+      <c r="Q142" s="61"/>
+      <c r="R142" s="61"/>
+      <c r="S142" s="61"/>
+      <c r="T142" s="61"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="P143" s="81"/>
-      <c r="Q143" s="81"/>
-      <c r="R143" s="81"/>
-      <c r="S143" s="81"/>
-      <c r="T143" s="81"/>
+      <c r="P143" s="61"/>
+      <c r="Q143" s="61"/>
+      <c r="R143" s="61"/>
+      <c r="S143" s="61"/>
+      <c r="T143" s="61"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="P144" s="81"/>
-      <c r="Q144" s="81"/>
-      <c r="R144" s="81"/>
-      <c r="S144" s="81"/>
-      <c r="T144" s="81"/>
+      <c r="P144" s="61"/>
+      <c r="Q144" s="61"/>
+      <c r="R144" s="61"/>
+      <c r="S144" s="61"/>
+      <c r="T144" s="61"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="P145" s="81"/>
-      <c r="Q145" s="81"/>
-      <c r="R145" s="81"/>
-      <c r="S145" s="81"/>
-      <c r="T145" s="81"/>
+      <c r="P145" s="61"/>
+      <c r="Q145" s="61"/>
+      <c r="R145" s="61"/>
+      <c r="S145" s="61"/>
+      <c r="T145" s="61"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="P146" s="81"/>
-      <c r="Q146" s="81"/>
-      <c r="R146" s="81"/>
-      <c r="S146" s="81"/>
-      <c r="T146" s="81"/>
+      <c r="P146" s="61"/>
+      <c r="Q146" s="61"/>
+      <c r="R146" s="61"/>
+      <c r="S146" s="61"/>
+      <c r="T146" s="61"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="P147" s="81"/>
-      <c r="Q147" s="81"/>
-      <c r="R147" s="81"/>
-      <c r="S147" s="81"/>
-      <c r="T147" s="81"/>
+      <c r="P147" s="61"/>
+      <c r="Q147" s="61"/>
+      <c r="R147" s="61"/>
+      <c r="S147" s="61"/>
+      <c r="T147" s="61"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="P148" s="81"/>
-      <c r="Q148" s="81"/>
-      <c r="R148" s="81"/>
-      <c r="S148" s="81"/>
-      <c r="T148" s="81"/>
+      <c r="P148" s="61"/>
+      <c r="Q148" s="61"/>
+      <c r="R148" s="61"/>
+      <c r="S148" s="61"/>
+      <c r="T148" s="61"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="P149" s="81"/>
-      <c r="Q149" s="81"/>
-      <c r="R149" s="81"/>
-      <c r="S149" s="81"/>
-      <c r="T149" s="81"/>
+      <c r="P149" s="61"/>
+      <c r="Q149" s="61"/>
+      <c r="R149" s="61"/>
+      <c r="S149" s="61"/>
+      <c r="T149" s="61"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="P150" s="81"/>
-      <c r="Q150" s="81"/>
-      <c r="R150" s="81"/>
-      <c r="S150" s="81"/>
-      <c r="T150" s="81"/>
+      <c r="P150" s="61"/>
+      <c r="Q150" s="61"/>
+      <c r="R150" s="61"/>
+      <c r="S150" s="61"/>
+      <c r="T150" s="61"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="P151" s="81"/>
-      <c r="Q151" s="81"/>
-      <c r="R151" s="81"/>
-      <c r="S151" s="81"/>
-      <c r="T151" s="81"/>
+      <c r="P151" s="61"/>
+      <c r="Q151" s="61"/>
+      <c r="R151" s="61"/>
+      <c r="S151" s="61"/>
+      <c r="T151" s="61"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="P152" s="81"/>
-      <c r="Q152" s="81"/>
-      <c r="R152" s="81"/>
-      <c r="S152" s="81"/>
-      <c r="T152" s="81"/>
+      <c r="P152" s="61"/>
+      <c r="Q152" s="61"/>
+      <c r="R152" s="61"/>
+      <c r="S152" s="61"/>
+      <c r="T152" s="61"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="P153" s="81"/>
-      <c r="Q153" s="81"/>
-      <c r="R153" s="81"/>
-      <c r="S153" s="81"/>
-      <c r="T153" s="81"/>
+      <c r="P153" s="61"/>
+      <c r="Q153" s="61"/>
+      <c r="R153" s="61"/>
+      <c r="S153" s="61"/>
+      <c r="T153" s="61"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="P154" s="81"/>
-      <c r="Q154" s="81"/>
-      <c r="R154" s="81"/>
-      <c r="S154" s="81"/>
-      <c r="T154" s="81"/>
+      <c r="P154" s="61"/>
+      <c r="Q154" s="61"/>
+      <c r="R154" s="61"/>
+      <c r="S154" s="61"/>
+      <c r="T154" s="61"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="P155" s="81"/>
-      <c r="Q155" s="81"/>
-      <c r="R155" s="81"/>
-      <c r="S155" s="81"/>
-      <c r="T155" s="81"/>
+      <c r="P155" s="61"/>
+      <c r="Q155" s="61"/>
+      <c r="R155" s="61"/>
+      <c r="S155" s="61"/>
+      <c r="T155" s="61"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="P156" s="81"/>
-      <c r="Q156" s="81"/>
-      <c r="R156" s="81"/>
-      <c r="S156" s="81"/>
-      <c r="T156" s="81"/>
+      <c r="P156" s="61"/>
+      <c r="Q156" s="61"/>
+      <c r="R156" s="61"/>
+      <c r="S156" s="61"/>
+      <c r="T156" s="61"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="P157" s="81"/>
-      <c r="Q157" s="81"/>
-      <c r="R157" s="81"/>
-      <c r="S157" s="81"/>
-      <c r="T157" s="81"/>
+      <c r="P157" s="61"/>
+      <c r="Q157" s="61"/>
+      <c r="R157" s="61"/>
+      <c r="S157" s="61"/>
+      <c r="T157" s="61"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="P158" s="81"/>
-      <c r="Q158" s="81"/>
-      <c r="R158" s="81"/>
-      <c r="S158" s="81"/>
-      <c r="T158" s="81"/>
+      <c r="P158" s="61"/>
+      <c r="Q158" s="61"/>
+      <c r="R158" s="61"/>
+      <c r="S158" s="61"/>
+      <c r="T158" s="61"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="P159" s="81"/>
-      <c r="Q159" s="81"/>
-      <c r="R159" s="81"/>
-      <c r="S159" s="81"/>
-      <c r="T159" s="81"/>
+      <c r="P159" s="61"/>
+      <c r="Q159" s="61"/>
+      <c r="R159" s="61"/>
+      <c r="S159" s="61"/>
+      <c r="T159" s="61"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="P160" s="81"/>
-      <c r="Q160" s="81"/>
-      <c r="R160" s="81"/>
-      <c r="S160" s="81"/>
-      <c r="T160" s="81"/>
+      <c r="P160" s="61"/>
+      <c r="Q160" s="61"/>
+      <c r="R160" s="61"/>
+      <c r="S160" s="61"/>
+      <c r="T160" s="61"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="P161" s="81"/>
-      <c r="Q161" s="81"/>
-      <c r="R161" s="81"/>
-      <c r="S161" s="81"/>
-      <c r="T161" s="81"/>
+      <c r="P161" s="61"/>
+      <c r="Q161" s="61"/>
+      <c r="R161" s="61"/>
+      <c r="S161" s="61"/>
+      <c r="T161" s="61"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="P162" s="81"/>
-      <c r="Q162" s="81"/>
-      <c r="R162" s="81"/>
-      <c r="S162" s="81"/>
-      <c r="T162" s="81"/>
+      <c r="P162" s="61"/>
+      <c r="Q162" s="61"/>
+      <c r="R162" s="61"/>
+      <c r="S162" s="61"/>
+      <c r="T162" s="61"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="P163" s="81"/>
-      <c r="Q163" s="81"/>
-      <c r="R163" s="81"/>
-      <c r="S163" s="81"/>
-      <c r="T163" s="81"/>
+      <c r="P163" s="61"/>
+      <c r="Q163" s="61"/>
+      <c r="R163" s="61"/>
+      <c r="S163" s="61"/>
+      <c r="T163" s="61"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="P164" s="81"/>
-      <c r="Q164" s="81"/>
-      <c r="R164" s="81"/>
-      <c r="S164" s="81"/>
-      <c r="T164" s="81"/>
+      <c r="P164" s="61"/>
+      <c r="Q164" s="61"/>
+      <c r="R164" s="61"/>
+      <c r="S164" s="61"/>
+      <c r="T164" s="61"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="P165" s="81"/>
-      <c r="Q165" s="81"/>
-      <c r="R165" s="81"/>
-      <c r="S165" s="81"/>
-      <c r="T165" s="81"/>
+      <c r="P165" s="61"/>
+      <c r="Q165" s="61"/>
+      <c r="R165" s="61"/>
+      <c r="S165" s="61"/>
+      <c r="T165" s="61"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="P166" s="81"/>
-      <c r="Q166" s="81"/>
-      <c r="R166" s="81"/>
-      <c r="S166" s="81"/>
-      <c r="T166" s="81"/>
+      <c r="P166" s="61"/>
+      <c r="Q166" s="61"/>
+      <c r="R166" s="61"/>
+      <c r="S166" s="61"/>
+      <c r="T166" s="61"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="P167" s="81"/>
-      <c r="Q167" s="81"/>
-      <c r="R167" s="81"/>
-      <c r="S167" s="81"/>
-      <c r="T167" s="81"/>
+      <c r="P167" s="61"/>
+      <c r="Q167" s="61"/>
+      <c r="R167" s="61"/>
+      <c r="S167" s="61"/>
+      <c r="T167" s="61"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="P168" s="81"/>
-      <c r="Q168" s="81"/>
-      <c r="R168" s="81"/>
-      <c r="S168" s="81"/>
-      <c r="T168" s="81"/>
+      <c r="P168" s="61"/>
+      <c r="Q168" s="61"/>
+      <c r="R168" s="61"/>
+      <c r="S168" s="61"/>
+      <c r="T168" s="61"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="P169" s="81"/>
-      <c r="Q169" s="81"/>
-      <c r="R169" s="81"/>
-      <c r="S169" s="81"/>
-      <c r="T169" s="81"/>
+      <c r="P169" s="61"/>
+      <c r="Q169" s="61"/>
+      <c r="R169" s="61"/>
+      <c r="S169" s="61"/>
+      <c r="T169" s="61"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="P170" s="81"/>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="81"/>
-      <c r="S170" s="81"/>
-      <c r="T170" s="81"/>
+      <c r="P170" s="61"/>
+      <c r="Q170" s="61"/>
+      <c r="R170" s="61"/>
+      <c r="S170" s="61"/>
+      <c r="T170" s="61"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="P171" s="81"/>
-      <c r="Q171" s="81"/>
-      <c r="R171" s="81"/>
-      <c r="S171" s="81"/>
-      <c r="T171" s="81"/>
+      <c r="P171" s="61"/>
+      <c r="Q171" s="61"/>
+      <c r="R171" s="61"/>
+      <c r="S171" s="61"/>
+      <c r="T171" s="61"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="P172" s="81"/>
-      <c r="Q172" s="81"/>
-      <c r="R172" s="81"/>
-      <c r="S172" s="81"/>
-      <c r="T172" s="81"/>
+      <c r="P172" s="61"/>
+      <c r="Q172" s="61"/>
+      <c r="R172" s="61"/>
+      <c r="S172" s="61"/>
+      <c r="T172" s="61"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="P173" s="81"/>
-      <c r="Q173" s="81"/>
-      <c r="R173" s="81"/>
-      <c r="S173" s="81"/>
-      <c r="T173" s="81"/>
+      <c r="P173" s="61"/>
+      <c r="Q173" s="61"/>
+      <c r="R173" s="61"/>
+      <c r="S173" s="61"/>
+      <c r="T173" s="61"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="P174" s="81"/>
-      <c r="Q174" s="81"/>
-      <c r="R174" s="81"/>
-      <c r="S174" s="81"/>
-      <c r="T174" s="81"/>
+      <c r="P174" s="61"/>
+      <c r="Q174" s="61"/>
+      <c r="R174" s="61"/>
+      <c r="S174" s="61"/>
+      <c r="T174" s="61"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="P175" s="81"/>
-      <c r="Q175" s="81"/>
-      <c r="R175" s="81"/>
-      <c r="S175" s="81"/>
-      <c r="T175" s="81"/>
+      <c r="P175" s="61"/>
+      <c r="Q175" s="61"/>
+      <c r="R175" s="61"/>
+      <c r="S175" s="61"/>
+      <c r="T175" s="61"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="P176" s="81"/>
-      <c r="Q176" s="81"/>
-      <c r="R176" s="81"/>
-      <c r="S176" s="81"/>
-      <c r="T176" s="81"/>
+      <c r="P176" s="61"/>
+      <c r="Q176" s="61"/>
+      <c r="R176" s="61"/>
+      <c r="S176" s="61"/>
+      <c r="T176" s="61"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="P177" s="81"/>
-      <c r="Q177" s="81"/>
-      <c r="R177" s="81"/>
-      <c r="S177" s="81"/>
-      <c r="T177" s="81"/>
+      <c r="P177" s="61"/>
+      <c r="Q177" s="61"/>
+      <c r="R177" s="61"/>
+      <c r="S177" s="61"/>
+      <c r="T177" s="61"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="P178" s="81"/>
-      <c r="Q178" s="81"/>
-      <c r="R178" s="81"/>
-      <c r="S178" s="81"/>
-      <c r="T178" s="81"/>
+      <c r="P178" s="61"/>
+      <c r="Q178" s="61"/>
+      <c r="R178" s="61"/>
+      <c r="S178" s="61"/>
+      <c r="T178" s="61"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="P179" s="81"/>
-      <c r="Q179" s="81"/>
-      <c r="R179" s="81"/>
-      <c r="S179" s="81"/>
-      <c r="T179" s="81"/>
+      <c r="P179" s="61"/>
+      <c r="Q179" s="61"/>
+      <c r="R179" s="61"/>
+      <c r="S179" s="61"/>
+      <c r="T179" s="61"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="P180" s="81"/>
-      <c r="Q180" s="81"/>
-      <c r="R180" s="81"/>
-      <c r="S180" s="81"/>
-      <c r="T180" s="81"/>
+      <c r="P180" s="61"/>
+      <c r="Q180" s="61"/>
+      <c r="R180" s="61"/>
+      <c r="S180" s="61"/>
+      <c r="T180" s="61"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="P181" s="81"/>
-      <c r="Q181" s="81"/>
-      <c r="R181" s="81"/>
-      <c r="S181" s="81"/>
-      <c r="T181" s="81"/>
+      <c r="P181" s="61"/>
+      <c r="Q181" s="61"/>
+      <c r="R181" s="61"/>
+      <c r="S181" s="61"/>
+      <c r="T181" s="61"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="P182" s="81"/>
-      <c r="Q182" s="81"/>
-      <c r="R182" s="81"/>
-      <c r="S182" s="81"/>
-      <c r="T182" s="81"/>
+      <c r="P182" s="61"/>
+      <c r="Q182" s="61"/>
+      <c r="R182" s="61"/>
+      <c r="S182" s="61"/>
+      <c r="T182" s="61"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="P183" s="81"/>
-      <c r="Q183" s="81"/>
-      <c r="R183" s="81"/>
-      <c r="S183" s="81"/>
-      <c r="T183" s="81"/>
+      <c r="P183" s="61"/>
+      <c r="Q183" s="61"/>
+      <c r="R183" s="61"/>
+      <c r="S183" s="61"/>
+      <c r="T183" s="61"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="P184" s="81"/>
-      <c r="Q184" s="81"/>
-      <c r="R184" s="81"/>
-      <c r="S184" s="81"/>
-      <c r="T184" s="81"/>
+      <c r="P184" s="61"/>
+      <c r="Q184" s="61"/>
+      <c r="R184" s="61"/>
+      <c r="S184" s="61"/>
+      <c r="T184" s="61"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="P185" s="81"/>
-      <c r="Q185" s="81"/>
-      <c r="R185" s="81"/>
-      <c r="S185" s="81"/>
-      <c r="T185" s="81"/>
+      <c r="P185" s="61"/>
+      <c r="Q185" s="61"/>
+      <c r="R185" s="61"/>
+      <c r="S185" s="61"/>
+      <c r="T185" s="61"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="P186" s="81"/>
-      <c r="Q186" s="81"/>
-      <c r="R186" s="81"/>
-      <c r="S186" s="81"/>
-      <c r="T186" s="81"/>
+      <c r="P186" s="61"/>
+      <c r="Q186" s="61"/>
+      <c r="R186" s="61"/>
+      <c r="S186" s="61"/>
+      <c r="T186" s="61"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="P187" s="81"/>
-      <c r="Q187" s="81"/>
-      <c r="R187" s="81"/>
-      <c r="S187" s="81"/>
-      <c r="T187" s="81"/>
+      <c r="P187" s="61"/>
+      <c r="Q187" s="61"/>
+      <c r="R187" s="61"/>
+      <c r="S187" s="61"/>
+      <c r="T187" s="61"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="P188" s="81"/>
-      <c r="Q188" s="81"/>
-      <c r="R188" s="81"/>
-      <c r="S188" s="81"/>
-      <c r="T188" s="81"/>
+      <c r="P188" s="61"/>
+      <c r="Q188" s="61"/>
+      <c r="R188" s="61"/>
+      <c r="S188" s="61"/>
+      <c r="T188" s="61"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="P189" s="81"/>
-      <c r="Q189" s="81"/>
-      <c r="R189" s="81"/>
-      <c r="S189" s="81"/>
-      <c r="T189" s="81"/>
+      <c r="P189" s="61"/>
+      <c r="Q189" s="61"/>
+      <c r="R189" s="61"/>
+      <c r="S189" s="61"/>
+      <c r="T189" s="61"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="P190" s="81"/>
-      <c r="Q190" s="81"/>
-      <c r="R190" s="81"/>
-      <c r="S190" s="81"/>
-      <c r="T190" s="81"/>
+      <c r="P190" s="61"/>
+      <c r="Q190" s="61"/>
+      <c r="R190" s="61"/>
+      <c r="S190" s="61"/>
+      <c r="T190" s="61"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="P191" s="81"/>
-      <c r="Q191" s="81"/>
-      <c r="R191" s="81"/>
-      <c r="S191" s="81"/>
-      <c r="T191" s="81"/>
+      <c r="P191" s="61"/>
+      <c r="Q191" s="61"/>
+      <c r="R191" s="61"/>
+      <c r="S191" s="61"/>
+      <c r="T191" s="61"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="P192" s="81"/>
-      <c r="Q192" s="81"/>
-      <c r="R192" s="81"/>
-      <c r="S192" s="81"/>
-      <c r="T192" s="81"/>
+      <c r="P192" s="61"/>
+      <c r="Q192" s="61"/>
+      <c r="R192" s="61"/>
+      <c r="S192" s="61"/>
+      <c r="T192" s="61"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="P193" s="81"/>
-      <c r="Q193" s="81"/>
-      <c r="R193" s="81"/>
-      <c r="S193" s="81"/>
-      <c r="T193" s="81"/>
+      <c r="P193" s="61"/>
+      <c r="Q193" s="61"/>
+      <c r="R193" s="61"/>
+      <c r="S193" s="61"/>
+      <c r="T193" s="61"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="P194" s="81"/>
-      <c r="Q194" s="81"/>
-      <c r="R194" s="81"/>
-      <c r="S194" s="81"/>
-      <c r="T194" s="81"/>
+      <c r="P194" s="61"/>
+      <c r="Q194" s="61"/>
+      <c r="R194" s="61"/>
+      <c r="S194" s="61"/>
+      <c r="T194" s="61"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="P195" s="81"/>
-      <c r="Q195" s="81"/>
-      <c r="R195" s="81"/>
-      <c r="S195" s="81"/>
-      <c r="T195" s="81"/>
+      <c r="P195" s="61"/>
+      <c r="Q195" s="61"/>
+      <c r="R195" s="61"/>
+      <c r="S195" s="61"/>
+      <c r="T195" s="61"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="P196" s="81"/>
-      <c r="Q196" s="81"/>
-      <c r="R196" s="81"/>
-      <c r="S196" s="81"/>
-      <c r="T196" s="81"/>
+      <c r="P196" s="61"/>
+      <c r="Q196" s="61"/>
+      <c r="R196" s="61"/>
+      <c r="S196" s="61"/>
+      <c r="T196" s="61"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="P197" s="81"/>
-      <c r="Q197" s="81"/>
-      <c r="R197" s="81"/>
-      <c r="S197" s="81"/>
-      <c r="T197" s="81"/>
+      <c r="P197" s="61"/>
+      <c r="Q197" s="61"/>
+      <c r="R197" s="61"/>
+      <c r="S197" s="61"/>
+      <c r="T197" s="61"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="P198" s="81"/>
-      <c r="Q198" s="81"/>
-      <c r="R198" s="81"/>
-      <c r="S198" s="81"/>
-      <c r="T198" s="81"/>
+      <c r="P198" s="61"/>
+      <c r="Q198" s="61"/>
+      <c r="R198" s="61"/>
+      <c r="S198" s="61"/>
+      <c r="T198" s="61"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="P199" s="81"/>
-      <c r="Q199" s="81"/>
-      <c r="R199" s="81"/>
-      <c r="S199" s="81"/>
-      <c r="T199" s="81"/>
+      <c r="P199" s="61"/>
+      <c r="Q199" s="61"/>
+      <c r="R199" s="61"/>
+      <c r="S199" s="61"/>
+      <c r="T199" s="61"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="P200" s="81"/>
-      <c r="Q200" s="81"/>
-      <c r="R200" s="81"/>
-      <c r="S200" s="81"/>
-      <c r="T200" s="81"/>
+      <c r="P200" s="61"/>
+      <c r="Q200" s="61"/>
+      <c r="R200" s="61"/>
+      <c r="S200" s="61"/>
+      <c r="T200" s="61"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="P201" s="81"/>
-      <c r="Q201" s="81"/>
-      <c r="R201" s="81"/>
-      <c r="S201" s="81"/>
-      <c r="T201" s="81"/>
+      <c r="P201" s="61"/>
+      <c r="Q201" s="61"/>
+      <c r="R201" s="61"/>
+      <c r="S201" s="61"/>
+      <c r="T201" s="61"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="P202" s="81"/>
-      <c r="Q202" s="81"/>
-      <c r="R202" s="81"/>
-      <c r="S202" s="81"/>
-      <c r="T202" s="81"/>
+      <c r="P202" s="61"/>
+      <c r="Q202" s="61"/>
+      <c r="R202" s="61"/>
+      <c r="S202" s="61"/>
+      <c r="T202" s="61"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="P203" s="81"/>
-      <c r="Q203" s="81"/>
-      <c r="R203" s="81"/>
-      <c r="S203" s="81"/>
-      <c r="T203" s="81"/>
+      <c r="P203" s="61"/>
+      <c r="Q203" s="61"/>
+      <c r="R203" s="61"/>
+      <c r="S203" s="61"/>
+      <c r="T203" s="61"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="P204" s="81"/>
-      <c r="Q204" s="81"/>
-      <c r="R204" s="81"/>
-      <c r="S204" s="81"/>
-      <c r="T204" s="81"/>
+      <c r="P204" s="61"/>
+      <c r="Q204" s="61"/>
+      <c r="R204" s="61"/>
+      <c r="S204" s="61"/>
+      <c r="T204" s="61"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="P205" s="81"/>
-      <c r="Q205" s="81"/>
-      <c r="R205" s="81"/>
-      <c r="S205" s="81"/>
-      <c r="T205" s="81"/>
+      <c r="P205" s="61"/>
+      <c r="Q205" s="61"/>
+      <c r="R205" s="61"/>
+      <c r="S205" s="61"/>
+      <c r="T205" s="61"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="P206" s="81"/>
-      <c r="Q206" s="81"/>
-      <c r="R206" s="81"/>
-      <c r="S206" s="81"/>
-      <c r="T206" s="81"/>
+      <c r="P206" s="61"/>
+      <c r="Q206" s="61"/>
+      <c r="R206" s="61"/>
+      <c r="S206" s="61"/>
+      <c r="T206" s="61"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="P207" s="81"/>
-      <c r="Q207" s="81"/>
-      <c r="R207" s="81"/>
-      <c r="S207" s="81"/>
-      <c r="T207" s="81"/>
+      <c r="P207" s="61"/>
+      <c r="Q207" s="61"/>
+      <c r="R207" s="61"/>
+      <c r="S207" s="61"/>
+      <c r="T207" s="61"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="P208" s="81"/>
-      <c r="Q208" s="81"/>
-      <c r="R208" s="81"/>
-      <c r="S208" s="81"/>
-      <c r="T208" s="81"/>
+      <c r="P208" s="61"/>
+      <c r="Q208" s="61"/>
+      <c r="R208" s="61"/>
+      <c r="S208" s="61"/>
+      <c r="T208" s="61"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="P209" s="81"/>
-      <c r="Q209" s="81"/>
-      <c r="R209" s="81"/>
-      <c r="S209" s="81"/>
-      <c r="T209" s="81"/>
+      <c r="P209" s="61"/>
+      <c r="Q209" s="61"/>
+      <c r="R209" s="61"/>
+      <c r="S209" s="61"/>
+      <c r="T209" s="61"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="P210" s="81"/>
-      <c r="Q210" s="81"/>
-      <c r="R210" s="81"/>
-      <c r="S210" s="81"/>
-      <c r="T210" s="81"/>
+      <c r="P210" s="61"/>
+      <c r="Q210" s="61"/>
+      <c r="R210" s="61"/>
+      <c r="S210" s="61"/>
+      <c r="T210" s="61"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="P211" s="81"/>
-      <c r="Q211" s="81"/>
-      <c r="R211" s="81"/>
-      <c r="S211" s="81"/>
-      <c r="T211" s="81"/>
+      <c r="P211" s="61"/>
+      <c r="Q211" s="61"/>
+      <c r="R211" s="61"/>
+      <c r="S211" s="61"/>
+      <c r="T211" s="61"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="P212" s="81"/>
-      <c r="Q212" s="81"/>
-      <c r="R212" s="81"/>
-      <c r="S212" s="81"/>
-      <c r="T212" s="81"/>
+      <c r="P212" s="61"/>
+      <c r="Q212" s="61"/>
+      <c r="R212" s="61"/>
+      <c r="S212" s="61"/>
+      <c r="T212" s="61"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="P213" s="81"/>
-      <c r="Q213" s="81"/>
-      <c r="R213" s="81"/>
-      <c r="S213" s="81"/>
-      <c r="T213" s="81"/>
+      <c r="P213" s="61"/>
+      <c r="Q213" s="61"/>
+      <c r="R213" s="61"/>
+      <c r="S213" s="61"/>
+      <c r="T213" s="61"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="P214" s="81"/>
-      <c r="Q214" s="81"/>
-      <c r="R214" s="81"/>
-      <c r="S214" s="81"/>
-      <c r="T214" s="81"/>
+      <c r="P214" s="61"/>
+      <c r="Q214" s="61"/>
+      <c r="R214" s="61"/>
+      <c r="S214" s="61"/>
+      <c r="T214" s="61"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="P215" s="81"/>
-      <c r="Q215" s="81"/>
-      <c r="R215" s="81"/>
-      <c r="S215" s="81"/>
-      <c r="T215" s="81"/>
+      <c r="P215" s="61"/>
+      <c r="Q215" s="61"/>
+      <c r="R215" s="61"/>
+      <c r="S215" s="61"/>
+      <c r="T215" s="61"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="P216" s="81"/>
-      <c r="Q216" s="81"/>
-      <c r="R216" s="81"/>
-      <c r="S216" s="81"/>
-      <c r="T216" s="81"/>
+      <c r="P216" s="61"/>
+      <c r="Q216" s="61"/>
+      <c r="R216" s="61"/>
+      <c r="S216" s="61"/>
+      <c r="T216" s="61"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="P217" s="81"/>
-      <c r="Q217" s="81"/>
-      <c r="R217" s="81"/>
-      <c r="S217" s="81"/>
-      <c r="T217" s="81"/>
+      <c r="P217" s="61"/>
+      <c r="Q217" s="61"/>
+      <c r="R217" s="61"/>
+      <c r="S217" s="61"/>
+      <c r="T217" s="61"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="P218" s="81"/>
-      <c r="Q218" s="81"/>
-      <c r="R218" s="81"/>
-      <c r="S218" s="81"/>
-      <c r="T218" s="81"/>
+      <c r="P218" s="61"/>
+      <c r="Q218" s="61"/>
+      <c r="R218" s="61"/>
+      <c r="S218" s="61"/>
+      <c r="T218" s="61"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="P219" s="81"/>
-      <c r="Q219" s="81"/>
-      <c r="R219" s="81"/>
-      <c r="S219" s="81"/>
-      <c r="T219" s="81"/>
+      <c r="P219" s="61"/>
+      <c r="Q219" s="61"/>
+      <c r="R219" s="61"/>
+      <c r="S219" s="61"/>
+      <c r="T219" s="61"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="P220" s="81"/>
-      <c r="Q220" s="81"/>
-      <c r="R220" s="81"/>
-      <c r="S220" s="81"/>
-      <c r="T220" s="81"/>
+      <c r="P220" s="61"/>
+      <c r="Q220" s="61"/>
+      <c r="R220" s="61"/>
+      <c r="S220" s="61"/>
+      <c r="T220" s="61"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -12605,15 +12603,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="591.75" customHeight="1">
-      <c r="J1" s="81"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="81"/>
+      <c r="A2" s="61"/>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="J5" s="81"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -13637,19 +13635,19 @@
       <c r="A3" s="91">
         <v>43445.0</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="93"/>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="93"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -13660,13 +13658,13 @@
       <c r="A7" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="93"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>44</v>
       </c>
     </row>
@@ -13677,25 +13675,25 @@
       <c r="A10" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="93"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="93"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="93"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13706,31 +13704,31 @@
       <c r="A15" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="93"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="93"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="93"/>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="93"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13741,34 +13739,34 @@
       <c r="A21" s="94">
         <v>43420.0</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="93"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="93"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="93"/>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="93"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>60</v>
       </c>
     </row>
@@ -13779,13 +13777,13 @@
       <c r="A27" s="94">
         <v>43421.0</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="93"/>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="44" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13796,7 +13794,7 @@
       <c r="A30" s="94">
         <v>43423.0</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>63</v>
       </c>
     </row>
